--- a/data/nzd0288/nzd0288.xlsx
+++ b/data/nzd0288/nzd0288.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M771"/>
+  <dimension ref="A1:M782"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -30949,6 +30949,489 @@
         </is>
       </c>
     </row>
+    <row r="772">
+      <c r="A772" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-06 22:00:23+00:00</t>
+        </is>
+      </c>
+      <c r="B772" t="n">
+        <v>349.5914285714285</v>
+      </c>
+      <c r="C772" t="n">
+        <v>334.58</v>
+      </c>
+      <c r="D772" t="n">
+        <v>339.3955555555555</v>
+      </c>
+      <c r="E772" t="n">
+        <v>342.01</v>
+      </c>
+      <c r="F772" t="n">
+        <v>346.2555555555556</v>
+      </c>
+      <c r="G772" t="n">
+        <v>338.0155555555555</v>
+      </c>
+      <c r="H772" t="n">
+        <v>340.3114285714286</v>
+      </c>
+      <c r="I772" t="n">
+        <v>353.6414285714285</v>
+      </c>
+      <c r="J772" t="n">
+        <v>350.4055555555556</v>
+      </c>
+      <c r="K772" t="n">
+        <v>360.34</v>
+      </c>
+      <c r="L772" t="n">
+        <v>360.0736363636364</v>
+      </c>
+      <c r="M772" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="773">
+      <c r="A773" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-14 22:00:15+00:00</t>
+        </is>
+      </c>
+      <c r="B773" t="n">
+        <v>365.03</v>
+      </c>
+      <c r="C773" t="n">
+        <v>334.76</v>
+      </c>
+      <c r="D773" t="n">
+        <v>343.6</v>
+      </c>
+      <c r="E773" t="n">
+        <v>343.17</v>
+      </c>
+      <c r="F773" t="n">
+        <v>347.7</v>
+      </c>
+      <c r="G773" t="n">
+        <v>343.52</v>
+      </c>
+      <c r="H773" t="n">
+        <v>345.84</v>
+      </c>
+      <c r="I773" t="n">
+        <v>355.24</v>
+      </c>
+      <c r="J773" t="n">
+        <v>353.39</v>
+      </c>
+      <c r="K773" t="n">
+        <v>363.33</v>
+      </c>
+      <c r="L773" t="inlineStr"/>
+      <c r="M773" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="774">
+      <c r="A774" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-22 22:00:26+00:00</t>
+        </is>
+      </c>
+      <c r="B774" t="n">
+        <v>346.1742857142857</v>
+      </c>
+      <c r="C774" t="n">
+        <v>345.53</v>
+      </c>
+      <c r="D774" t="n">
+        <v>341.9466666666667</v>
+      </c>
+      <c r="E774" t="n">
+        <v>345.02</v>
+      </c>
+      <c r="F774" t="n">
+        <v>349.9966666666667</v>
+      </c>
+      <c r="G774" t="n">
+        <v>353.8866666666667</v>
+      </c>
+      <c r="H774" t="n">
+        <v>349.9942857142857</v>
+      </c>
+      <c r="I774" t="n">
+        <v>342.7142857142857</v>
+      </c>
+      <c r="J774" t="inlineStr"/>
+      <c r="K774" t="inlineStr"/>
+      <c r="L774" t="inlineStr"/>
+      <c r="M774" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="775">
+      <c r="A775" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-23 21:54:07+00:00</t>
+        </is>
+      </c>
+      <c r="B775" t="n">
+        <v>356.02</v>
+      </c>
+      <c r="C775" t="n">
+        <v>344.96</v>
+      </c>
+      <c r="D775" t="n">
+        <v>344.5066666666667</v>
+      </c>
+      <c r="E775" t="n">
+        <v>341.34</v>
+      </c>
+      <c r="F775" t="n">
+        <v>344.2666666666667</v>
+      </c>
+      <c r="G775" t="n">
+        <v>350.6866666666667</v>
+      </c>
+      <c r="H775" t="n">
+        <v>349.5</v>
+      </c>
+      <c r="I775" t="n">
+        <v>358.61</v>
+      </c>
+      <c r="J775" t="n">
+        <v>357.1066666666667</v>
+      </c>
+      <c r="K775" t="n">
+        <v>361.9</v>
+      </c>
+      <c r="L775" t="n">
+        <v>363.0681818181818</v>
+      </c>
+      <c r="M775" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="776">
+      <c r="A776" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-07 22:00:21+00:00</t>
+        </is>
+      </c>
+      <c r="B776" t="n">
+        <v>355.6114285714286</v>
+      </c>
+      <c r="C776" t="n">
+        <v>336.73</v>
+      </c>
+      <c r="D776" t="n">
+        <v>333.7022222222222</v>
+      </c>
+      <c r="E776" t="n">
+        <v>333.32</v>
+      </c>
+      <c r="F776" t="n">
+        <v>335.6822222222222</v>
+      </c>
+      <c r="G776" t="n">
+        <v>334.8522222222222</v>
+      </c>
+      <c r="H776" t="n">
+        <v>339.3414285714285</v>
+      </c>
+      <c r="I776" t="n">
+        <v>354.8114285714286</v>
+      </c>
+      <c r="J776" t="n">
+        <v>351.4022222222222</v>
+      </c>
+      <c r="K776" t="n">
+        <v>359.78</v>
+      </c>
+      <c r="L776" t="n">
+        <v>355.1872727272727</v>
+      </c>
+      <c r="M776" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="777">
+      <c r="A777" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-23 22:00:26+00:00</t>
+        </is>
+      </c>
+      <c r="B777" t="n">
+        <v>364.2928571428571</v>
+      </c>
+      <c r="C777" t="n">
+        <v>339.28</v>
+      </c>
+      <c r="D777" t="n">
+        <v>329.3533333333333</v>
+      </c>
+      <c r="E777" t="n">
+        <v>330.75</v>
+      </c>
+      <c r="F777" t="n">
+        <v>340.9333333333333</v>
+      </c>
+      <c r="G777" t="n">
+        <v>339.7133333333333</v>
+      </c>
+      <c r="H777" t="n">
+        <v>356.7928571428571</v>
+      </c>
+      <c r="I777" t="n">
+        <v>355.1828571428572</v>
+      </c>
+      <c r="J777" t="n">
+        <v>356.4833333333333</v>
+      </c>
+      <c r="K777" t="n">
+        <v>355.49</v>
+      </c>
+      <c r="L777" t="n">
+        <v>349.3445454545454</v>
+      </c>
+      <c r="M777" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="778">
+      <c r="A778" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-24 21:54:03+00:00</t>
+        </is>
+      </c>
+      <c r="B778" t="n">
+        <v>360.3671428571428</v>
+      </c>
+      <c r="C778" t="n">
+        <v>336.31</v>
+      </c>
+      <c r="D778" t="n">
+        <v>330.4944444444445</v>
+      </c>
+      <c r="E778" t="n">
+        <v>329.34</v>
+      </c>
+      <c r="F778" t="n">
+        <v>338.0644444444445</v>
+      </c>
+      <c r="G778" t="n">
+        <v>338.0344444444444</v>
+      </c>
+      <c r="H778" t="n">
+        <v>357.7771428571428</v>
+      </c>
+      <c r="I778" t="n">
+        <v>355.4571428571429</v>
+      </c>
+      <c r="J778" t="n">
+        <v>353.5844444444444</v>
+      </c>
+      <c r="K778" t="n">
+        <v>359.13</v>
+      </c>
+      <c r="L778" t="n">
+        <v>355.1945454545454</v>
+      </c>
+      <c r="M778" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="779">
+      <c r="A779" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-08 22:00:23+00:00</t>
+        </is>
+      </c>
+      <c r="B779" t="n">
+        <v>352.8342857142857</v>
+      </c>
+      <c r="C779" t="n">
+        <v>336.18</v>
+      </c>
+      <c r="D779" t="n">
+        <v>330.8988888888889</v>
+      </c>
+      <c r="E779" t="n">
+        <v>329.78</v>
+      </c>
+      <c r="F779" t="n">
+        <v>338.4588888888889</v>
+      </c>
+      <c r="G779" t="n">
+        <v>339.0888888888889</v>
+      </c>
+      <c r="H779" t="n">
+        <v>345.6842857142857</v>
+      </c>
+      <c r="I779" t="n">
+        <v>357.2442857142857</v>
+      </c>
+      <c r="J779" t="n">
+        <v>355.2088888888889</v>
+      </c>
+      <c r="K779" t="n">
+        <v>356.8</v>
+      </c>
+      <c r="L779" t="n">
+        <v>349.9890909090909</v>
+      </c>
+      <c r="M779" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="780">
+      <c r="A780" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-17 21:54:15+00:00</t>
+        </is>
+      </c>
+      <c r="B780" t="n">
+        <v>365.25</v>
+      </c>
+      <c r="C780" t="n">
+        <v>340.38</v>
+      </c>
+      <c r="D780" t="n">
+        <v>335.03</v>
+      </c>
+      <c r="E780" t="n">
+        <v>339.51</v>
+      </c>
+      <c r="F780" t="n">
+        <v>342.02</v>
+      </c>
+      <c r="G780" t="n">
+        <v>348.49</v>
+      </c>
+      <c r="H780" t="n">
+        <v>358.55</v>
+      </c>
+      <c r="I780" t="n">
+        <v>361.06</v>
+      </c>
+      <c r="J780" t="n">
+        <v>356.29</v>
+      </c>
+      <c r="K780" t="n">
+        <v>362.19</v>
+      </c>
+      <c r="L780" t="n">
+        <v>358.7645454545454</v>
+      </c>
+      <c r="M780" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="781">
+      <c r="A781" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-24 22:00:21+00:00</t>
+        </is>
+      </c>
+      <c r="B781" t="n">
+        <v>359.5857142857143</v>
+      </c>
+      <c r="C781" t="n">
+        <v>343.48</v>
+      </c>
+      <c r="D781" t="n">
+        <v>338.0033333333333</v>
+      </c>
+      <c r="E781" t="n">
+        <v>337.72</v>
+      </c>
+      <c r="F781" t="n">
+        <v>341.5033333333333</v>
+      </c>
+      <c r="G781" t="n">
+        <v>349.4533333333333</v>
+      </c>
+      <c r="H781" t="n">
+        <v>355.9757142857143</v>
+      </c>
+      <c r="I781" t="n">
+        <v>362.1857142857143</v>
+      </c>
+      <c r="J781" t="n">
+        <v>359.4633333333333</v>
+      </c>
+      <c r="K781" t="n">
+        <v>360.7</v>
+      </c>
+      <c r="L781" t="inlineStr"/>
+      <c r="M781" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="782">
+      <c r="A782" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-25 21:53:55+00:00</t>
+        </is>
+      </c>
+      <c r="B782" t="n">
+        <v>362.4814285714286</v>
+      </c>
+      <c r="C782" t="n">
+        <v>340.58</v>
+      </c>
+      <c r="D782" t="n">
+        <v>335.3844444444445</v>
+      </c>
+      <c r="E782" t="n">
+        <v>336.71</v>
+      </c>
+      <c r="F782" t="n">
+        <v>341.4944444444445</v>
+      </c>
+      <c r="G782" t="n">
+        <v>347.0144444444445</v>
+      </c>
+      <c r="H782" t="n">
+        <v>361.2414285714286</v>
+      </c>
+      <c r="I782" t="n">
+        <v>358.6114285714286</v>
+      </c>
+      <c r="J782" t="n">
+        <v>359.3644444444445</v>
+      </c>
+      <c r="K782" t="n">
+        <v>361.92</v>
+      </c>
+      <c r="L782" t="inlineStr"/>
+      <c r="M782" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -30960,7 +31443,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B784"/>
+  <dimension ref="A1:B795"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -38808,6 +39291,116 @@
       </c>
       <c r="B784" t="n">
         <v>0.76</v>
+      </c>
+    </row>
+    <row r="785">
+      <c r="A785" t="inlineStr">
+        <is>
+          <t>2024-12-06 22:00:00+00:00</t>
+        </is>
+      </c>
+      <c r="B785" t="n">
+        <v>0.79</v>
+      </c>
+    </row>
+    <row r="786">
+      <c r="A786" t="inlineStr">
+        <is>
+          <t>2024-12-14 22:00:00+00:00</t>
+        </is>
+      </c>
+      <c r="B786" t="n">
+        <v>-0.63</v>
+      </c>
+    </row>
+    <row r="787">
+      <c r="A787" t="inlineStr">
+        <is>
+          <t>2024-12-22 22:00:00+00:00</t>
+        </is>
+      </c>
+      <c r="B787" t="n">
+        <v>0.48</v>
+      </c>
+    </row>
+    <row r="788">
+      <c r="A788" t="inlineStr">
+        <is>
+          <t>2024-12-23 21:50:00+00:00</t>
+        </is>
+      </c>
+      <c r="B788" t="n">
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="789">
+      <c r="A789" t="inlineStr">
+        <is>
+          <t>2025-01-07 22:00:00+00:00</t>
+        </is>
+      </c>
+      <c r="B789" t="n">
+        <v>0.37</v>
+      </c>
+    </row>
+    <row r="790">
+      <c r="A790" t="inlineStr">
+        <is>
+          <t>2025-01-23 22:00:00+00:00</t>
+        </is>
+      </c>
+      <c r="B790" t="n">
+        <v>-0.03</v>
+      </c>
+    </row>
+    <row r="791">
+      <c r="A791" t="inlineStr">
+        <is>
+          <t>2025-01-24 21:50:00+00:00</t>
+        </is>
+      </c>
+      <c r="B791" t="n">
+        <v>-0.25</v>
+      </c>
+    </row>
+    <row r="792">
+      <c r="A792" t="inlineStr">
+        <is>
+          <t>2025-02-08 22:00:00+00:00</t>
+        </is>
+      </c>
+      <c r="B792" t="n">
+        <v>-0.5</v>
+      </c>
+    </row>
+    <row r="793">
+      <c r="A793" t="inlineStr">
+        <is>
+          <t>2025-02-17 21:50:00+00:00</t>
+        </is>
+      </c>
+      <c r="B793" t="n">
+        <v>0.63</v>
+      </c>
+    </row>
+    <row r="794">
+      <c r="A794" t="inlineStr">
+        <is>
+          <t>2025-02-24 22:00:00+00:00</t>
+        </is>
+      </c>
+      <c r="B794" t="n">
+        <v>-0.48</v>
+      </c>
+    </row>
+    <row r="795">
+      <c r="A795" t="inlineStr">
+        <is>
+          <t>2025-02-25 21:50:00+00:00</t>
+        </is>
+      </c>
+      <c r="B795" t="n">
+        <v>-0.61</v>
       </c>
     </row>
   </sheetData>
@@ -38976,28 +39569,28 @@
         <v>0.037</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.09934915734964514</v>
+        <v>-0.0777382147476233</v>
       </c>
       <c r="J2" t="n">
-        <v>770</v>
+        <v>781</v>
       </c>
       <c r="K2" t="n">
-        <v>490</v>
+        <v>501</v>
       </c>
       <c r="L2" t="n">
-        <v>0.0006017434510853237</v>
+        <v>0.0003847936531982121</v>
       </c>
       <c r="M2" t="n">
-        <v>11.76469736785324</v>
+        <v>11.61330654334327</v>
       </c>
       <c r="N2" t="n">
-        <v>928.536730131204</v>
+        <v>909.5678697802538</v>
       </c>
       <c r="O2" t="n">
-        <v>30.4719006648946</v>
+        <v>30.15904291883703</v>
       </c>
       <c r="P2" t="n">
-        <v>355.1161387022466</v>
+        <v>354.9135323923156</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -39053,28 +39646,28 @@
         <v>0.0564</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.2173677920460455</v>
+        <v>-0.1816440440211524</v>
       </c>
       <c r="J3" t="n">
-        <v>770</v>
+        <v>781</v>
       </c>
       <c r="K3" t="n">
-        <v>436</v>
+        <v>447</v>
       </c>
       <c r="L3" t="n">
-        <v>0.04618279104472678</v>
+        <v>0.03326003583656745</v>
       </c>
       <c r="M3" t="n">
-        <v>5.833852797457193</v>
+        <v>5.869775111181398</v>
       </c>
       <c r="N3" t="n">
-        <v>54.79202406718797</v>
+        <v>55.22644481469259</v>
       </c>
       <c r="O3" t="n">
-        <v>7.402163472065985</v>
+        <v>7.431449711509363</v>
       </c>
       <c r="P3" t="n">
-        <v>336.9682792651257</v>
+        <v>336.6316954546965</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -39130,28 +39723,28 @@
         <v>0.0515</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.73391870113041</v>
+        <v>-0.6465925885193745</v>
       </c>
       <c r="J4" t="n">
-        <v>770</v>
+        <v>781</v>
       </c>
       <c r="K4" t="n">
-        <v>583</v>
+        <v>594</v>
       </c>
       <c r="L4" t="n">
-        <v>0.01412588377023194</v>
+        <v>0.01134937108761402</v>
       </c>
       <c r="M4" t="n">
-        <v>23.78444461023292</v>
+        <v>23.44653105687599</v>
       </c>
       <c r="N4" t="n">
-        <v>2115.319101336846</v>
+        <v>2088.098853845016</v>
       </c>
       <c r="O4" t="n">
-        <v>45.99259833208868</v>
+        <v>45.69572030119468</v>
       </c>
       <c r="P4" t="n">
-        <v>329.6366330313007</v>
+        <v>328.8124107614767</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -39207,28 +39800,28 @@
         <v>0.0511</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.2189014098313741</v>
+        <v>-0.1873675304364752</v>
       </c>
       <c r="J5" t="n">
-        <v>770</v>
+        <v>781</v>
       </c>
       <c r="K5" t="n">
-        <v>530</v>
+        <v>541</v>
       </c>
       <c r="L5" t="n">
-        <v>0.003947478902446178</v>
+        <v>0.003005228921961645</v>
       </c>
       <c r="M5" t="n">
-        <v>10.70073293261556</v>
+        <v>10.56724281587909</v>
       </c>
       <c r="N5" t="n">
-        <v>694.4156449659862</v>
+        <v>682.3001988552218</v>
       </c>
       <c r="O5" t="n">
-        <v>26.35176739738696</v>
+        <v>26.12087668619148</v>
       </c>
       <c r="P5" t="n">
-        <v>334.1022806565521</v>
+        <v>333.8086412477575</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -39284,28 +39877,28 @@
         <v>0.0461</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.1146760977983651</v>
+        <v>-0.09698254277038099</v>
       </c>
       <c r="J6" t="n">
-        <v>770</v>
+        <v>781</v>
       </c>
       <c r="K6" t="n">
-        <v>615</v>
+        <v>626</v>
       </c>
       <c r="L6" t="n">
-        <v>0.007165113861844041</v>
+        <v>0.005272670961455783</v>
       </c>
       <c r="M6" t="n">
-        <v>7.781288924951789</v>
+        <v>7.733220461351376</v>
       </c>
       <c r="N6" t="n">
-        <v>101.7488561131195</v>
+        <v>100.7679269516532</v>
       </c>
       <c r="O6" t="n">
-        <v>10.08706380038907</v>
+        <v>10.03832291529084</v>
       </c>
       <c r="P6" t="n">
-        <v>339.7951224353988</v>
+        <v>339.6259358173671</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -39361,28 +39954,28 @@
         <v>0.0497</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.08001881875823089</v>
+        <v>-0.07630970370859008</v>
       </c>
       <c r="J7" t="n">
-        <v>770</v>
+        <v>781</v>
       </c>
       <c r="K7" t="n">
-        <v>648</v>
+        <v>659</v>
       </c>
       <c r="L7" t="n">
-        <v>0.003842084248661504</v>
+        <v>0.003589261406025557</v>
       </c>
       <c r="M7" t="n">
-        <v>7.323627085576875</v>
+        <v>7.292742049880829</v>
       </c>
       <c r="N7" t="n">
-        <v>91.86851112743126</v>
+        <v>90.96331852324271</v>
       </c>
       <c r="O7" t="n">
-        <v>9.584806264470412</v>
+        <v>9.537469188586808</v>
       </c>
       <c r="P7" t="n">
-        <v>344.7316452764285</v>
+        <v>344.6959510904297</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -39438,28 +40031,28 @@
         <v>0.036</v>
       </c>
       <c r="I8" t="n">
-        <v>-0.117107269247598</v>
+        <v>-0.1157048072086003</v>
       </c>
       <c r="J8" t="n">
-        <v>770</v>
+        <v>781</v>
       </c>
       <c r="K8" t="n">
-        <v>589</v>
+        <v>600</v>
       </c>
       <c r="L8" t="n">
-        <v>0.006888078110157903</v>
+        <v>0.006902366131555815</v>
       </c>
       <c r="M8" t="n">
-        <v>7.673295902536059</v>
+        <v>7.649371546149638</v>
       </c>
       <c r="N8" t="n">
-        <v>107.6556908363029</v>
+        <v>106.6435901296596</v>
       </c>
       <c r="O8" t="n">
-        <v>10.37572603899616</v>
+        <v>10.32683834141213</v>
       </c>
       <c r="P8" t="n">
-        <v>353.6006877893769</v>
+        <v>353.5861691817814</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -39515,28 +40108,28 @@
         <v>0.0355</v>
       </c>
       <c r="I9" t="n">
-        <v>-0.1130373651388421</v>
+        <v>-0.1151046968208607</v>
       </c>
       <c r="J9" t="n">
-        <v>770</v>
+        <v>781</v>
       </c>
       <c r="K9" t="n">
-        <v>607</v>
+        <v>618</v>
       </c>
       <c r="L9" t="n">
-        <v>0.01040900655519161</v>
+        <v>0.0110965191041329</v>
       </c>
       <c r="M9" t="n">
-        <v>6.285241558182621</v>
+        <v>6.234070149905961</v>
       </c>
       <c r="N9" t="n">
-        <v>67.09915878862539</v>
+        <v>66.34009443008598</v>
       </c>
       <c r="O9" t="n">
-        <v>8.19140761948918</v>
+        <v>8.144942874574749</v>
       </c>
       <c r="P9" t="n">
-        <v>359.4169042078141</v>
+        <v>359.4364940866049</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -39592,28 +40185,28 @@
         <v>0.0486</v>
       </c>
       <c r="I10" t="n">
-        <v>-0.0953759313332596</v>
+        <v>-0.1015548444589456</v>
       </c>
       <c r="J10" t="n">
-        <v>770</v>
+        <v>781</v>
       </c>
       <c r="K10" t="n">
-        <v>640</v>
+        <v>650</v>
       </c>
       <c r="L10" t="n">
-        <v>0.009560682207247817</v>
+        <v>0.01112443001419672</v>
       </c>
       <c r="M10" t="n">
-        <v>5.462223038845073</v>
+        <v>5.424004824990147</v>
       </c>
       <c r="N10" t="n">
-        <v>51.81241754853873</v>
+        <v>51.21477106046225</v>
       </c>
       <c r="O10" t="n">
-        <v>7.198084297126474</v>
+        <v>7.1564496127942</v>
       </c>
       <c r="P10" t="n">
-        <v>359.8459463815672</v>
+        <v>359.905113728826</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
@@ -39669,28 +40262,28 @@
         <v>0.0517</v>
       </c>
       <c r="I11" t="n">
-        <v>-0.04854769886060566</v>
+        <v>-0.06157052436808264</v>
       </c>
       <c r="J11" t="n">
-        <v>770</v>
+        <v>781</v>
       </c>
       <c r="K11" t="n">
-        <v>645</v>
+        <v>655</v>
       </c>
       <c r="L11" t="n">
-        <v>0.002350346336702391</v>
+        <v>0.003866449572824893</v>
       </c>
       <c r="M11" t="n">
-        <v>5.697721664238856</v>
+        <v>5.675400856498102</v>
       </c>
       <c r="N11" t="n">
-        <v>54.98101993905363</v>
+        <v>54.5249861709332</v>
       </c>
       <c r="O11" t="n">
-        <v>7.414918741230657</v>
+        <v>7.384103613231141</v>
       </c>
       <c r="P11" t="n">
-        <v>365.9270323050955</v>
+        <v>366.0524627534959</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
@@ -39746,28 +40339,28 @@
         <v>0.0577</v>
       </c>
       <c r="I12" t="n">
-        <v>0.03695297903850519</v>
+        <v>0.02097249425043226</v>
       </c>
       <c r="J12" t="n">
-        <v>770</v>
+        <v>781</v>
       </c>
       <c r="K12" t="n">
-        <v>585</v>
+        <v>592</v>
       </c>
       <c r="L12" t="n">
-        <v>0.00105768231775194</v>
+        <v>0.000345244863616978</v>
       </c>
       <c r="M12" t="n">
-        <v>6.675065348446332</v>
+        <v>6.67429269385775</v>
       </c>
       <c r="N12" t="n">
-        <v>72.26045146626767</v>
+        <v>72.25396584171311</v>
       </c>
       <c r="O12" t="n">
-        <v>8.500614769901508</v>
+        <v>8.500233281605459</v>
       </c>
       <c r="P12" t="n">
-        <v>362.1657016658938</v>
+        <v>362.3166685349862</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
@@ -39804,7 +40397,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M771"/>
+  <dimension ref="A1:M782"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -83061,6 +83654,719 @@
         </is>
       </c>
     </row>
+    <row r="772">
+      <c r="A772" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-06 22:00:23+00:00</t>
+        </is>
+      </c>
+      <c r="B772" t="inlineStr">
+        <is>
+          <t>-39.24248541141143,177.0273473338169</t>
+        </is>
+      </c>
+      <c r="C772" t="inlineStr">
+        <is>
+          <t>-39.242902952445576,177.0266021171677</t>
+        </is>
+      </c>
+      <c r="D772" t="inlineStr">
+        <is>
+          <t>-39.24343868757023,177.0260287349833</t>
+        </is>
+      </c>
+      <c r="E772" t="inlineStr">
+        <is>
+          <t>-39.24396129730586,177.02543627660566</t>
+        </is>
+      </c>
+      <c r="F772" t="inlineStr">
+        <is>
+          <t>-39.24449362749746,177.0248579549784</t>
+        </is>
+      </c>
+      <c r="G772" t="inlineStr">
+        <is>
+          <t>-39.2449513378011,177.02417168897836</t>
+        </is>
+      </c>
+      <c r="H772" t="inlineStr">
+        <is>
+          <t>-39.24546969627301,177.02357506247648</t>
+        </is>
+      </c>
+      <c r="I772" t="inlineStr">
+        <is>
+          <t>-39.246049864643865,177.02306498116116</t>
+        </is>
+      </c>
+      <c r="J772" t="inlineStr">
+        <is>
+          <t>-39.24653009395686,177.0224124951628</t>
+        </is>
+      </c>
+      <c r="K772" t="inlineStr">
+        <is>
+          <t>-39.247083759455876,177.02187530777454</t>
+        </is>
+      </c>
+      <c r="L772" t="inlineStr">
+        <is>
+          <t>-39.24766727919525,177.02144832031652</t>
+        </is>
+      </c>
+      <c r="M772" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="773">
+      <c r="A773" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-14 22:00:15+00:00</t>
+        </is>
+      </c>
+      <c r="B773" t="inlineStr">
+        <is>
+          <t>-39.242577447413716,177.0274811353468</t>
+        </is>
+      </c>
+      <c r="C773" t="inlineStr">
+        <is>
+          <t>-39.24290402551182,177.0266036771748</t>
+        </is>
+      </c>
+      <c r="D773" t="inlineStr">
+        <is>
+          <t>-39.243463752383065,177.02606517385635</t>
+        </is>
+      </c>
+      <c r="E773" t="inlineStr">
+        <is>
+          <t>-39.24396821268453,177.02544633007926</t>
+        </is>
+      </c>
+      <c r="F773" t="inlineStr">
+        <is>
+          <t>-39.244502238639946,177.02487047373137</t>
+        </is>
+      </c>
+      <c r="G773" t="inlineStr">
+        <is>
+          <t>-39.24498421995516,177.02421931896635</t>
+        </is>
+      </c>
+      <c r="H773" t="inlineStr">
+        <is>
+          <t>-39.245502999207,177.0236225833586</t>
+        </is>
+      </c>
+      <c r="I773" t="inlineStr">
+        <is>
+          <t>-39.24605955437748,177.02307865154603</t>
+        </is>
+      </c>
+      <c r="J773" t="inlineStr">
+        <is>
+          <t>-39.24654818424928,177.0224380171002</t>
+        </is>
+      </c>
+      <c r="K773" t="inlineStr">
+        <is>
+          <t>-39.24709918877879,177.02190365126836</t>
+        </is>
+      </c>
+      <c r="L773" t="inlineStr"/>
+      <c r="M773" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="774">
+      <c r="A774" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-22 22:00:26+00:00</t>
+        </is>
+      </c>
+      <c r="B774" t="inlineStr">
+        <is>
+          <t>-39.242465040321306,177.02731771849798</t>
+        </is>
+      </c>
+      <c r="C774" t="inlineStr">
+        <is>
+          <t>-39.24296823059832,177.02669701768477</t>
+        </is>
+      </c>
+      <c r="D774" t="inlineStr">
+        <is>
+          <t>-39.24345389603114,177.02605084482497</t>
+        </is>
+      </c>
+      <c r="E774" t="inlineStr">
+        <is>
+          <t>-39.24397924151917,177.02546236364034</t>
+        </is>
+      </c>
+      <c r="F774" t="inlineStr">
+        <is>
+          <t>-39.24451593035335,177.02489037855486</t>
+        </is>
+      </c>
+      <c r="G774" t="inlineStr">
+        <is>
+          <t>-39.24504614773102,177.0243090219101</t>
+        </is>
+      </c>
+      <c r="H774" t="inlineStr">
+        <is>
+          <t>-39.24552802372282,177.02365829158578</t>
+        </is>
+      </c>
+      <c r="I774" t="inlineStr">
+        <is>
+          <t>-39.24598362976734,177.0229715364234</t>
+        </is>
+      </c>
+      <c r="J774" t="inlineStr"/>
+      <c r="K774" t="inlineStr"/>
+      <c r="L774" t="inlineStr"/>
+      <c r="M774" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="775">
+      <c r="A775" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-23 21:54:07+00:00</t>
+        </is>
+      </c>
+      <c r="B775" t="inlineStr">
+        <is>
+          <t>-39.24252373492749,177.0274030483008</t>
+        </is>
+      </c>
+      <c r="C775" t="inlineStr">
+        <is>
+          <t>-39.24296483255965,177.02669207765356</t>
+        </is>
+      </c>
+      <c r="D775" t="inlineStr">
+        <is>
+          <t>-39.243469157478444,177.026073031714</t>
+        </is>
+      </c>
+      <c r="E775" t="inlineStr">
+        <is>
+          <t>-39.24395730307806,177.02543046985886</t>
+        </is>
+      </c>
+      <c r="F775" t="inlineStr">
+        <is>
+          <t>-39.2444817706142,177.0248407176235</t>
+        </is>
+      </c>
+      <c r="G775" t="inlineStr">
+        <is>
+          <t>-39.24502703176994,177.0242813322387</t>
+        </is>
+      </c>
+      <c r="H775" t="inlineStr">
+        <is>
+          <t>-39.24552504625356,177.02365404294392</t>
+        </is>
+      </c>
+      <c r="I775" t="inlineStr">
+        <is>
+          <t>-39.24607998161156,177.0231074705377</t>
+        </is>
+      </c>
+      <c r="J775" t="inlineStr">
+        <is>
+          <t>-39.246570712918064,177.0224698007672</t>
+        </is>
+      </c>
+      <c r="K775" t="inlineStr">
+        <is>
+          <t>-39.24709180953834,177.02189009568283</t>
+        </is>
+      </c>
+      <c r="L775" t="inlineStr">
+        <is>
+          <t>-39.24767969532103,177.02147907401937</t>
+        </is>
+      </c>
+      <c r="M775" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="776">
+      <c r="A776" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-07 22:00:21+00:00</t>
+        </is>
+      </c>
+      <c r="B776" t="inlineStr">
+        <is>
+          <t>-39.242521299256026,177.02739950733405</t>
+        </is>
+      </c>
+      <c r="C776" t="inlineStr">
+        <is>
+          <t>-39.24291576962401,177.02662075058873</t>
+        </is>
+      </c>
+      <c r="D776" t="inlineStr">
+        <is>
+          <t>-39.243404746719655,177.0259793923221</t>
+        </is>
+      </c>
+      <c r="E776" t="inlineStr">
+        <is>
+          <t>-39.243909491549985,177.02536096228405</t>
+        </is>
+      </c>
+      <c r="F776" t="inlineStr">
+        <is>
+          <t>-39.24443059388835,177.02476631779936</t>
+        </is>
+      </c>
+      <c r="G776" t="inlineStr">
+        <is>
+          <t>-39.24493244084068,177.0241443166577</t>
+        </is>
+      </c>
+      <c r="H776" t="inlineStr">
+        <is>
+          <t>-39.24546385319782,177.02356672483796</t>
+        </is>
+      </c>
+      <c r="I776" t="inlineStr">
+        <is>
+          <t>-39.24605695659384,177.02307498656313</t>
+        </is>
+      </c>
+      <c r="J776" t="inlineStr">
+        <is>
+          <t>-39.24653613528008,177.0224210183102</t>
+        </is>
+      </c>
+      <c r="K776" t="inlineStr">
+        <is>
+          <t>-39.247080869682165,177.02186999929543</t>
+        </is>
+      </c>
+      <c r="L776" t="inlineStr">
+        <is>
+          <t>-39.24764701910487,177.02139813783944</t>
+        </is>
+      </c>
+      <c r="M776" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="777">
+      <c r="A777" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-23 22:00:26+00:00</t>
+        </is>
+      </c>
+      <c r="B777" t="inlineStr">
+        <is>
+          <t>-39.242573052990245,177.02747474673987</t>
+        </is>
+      </c>
+      <c r="C777" t="inlineStr">
+        <is>
+          <t>-39.242930971389406,177.02664285070153</t>
+        </is>
+      </c>
+      <c r="D777" t="inlineStr">
+        <is>
+          <t>-39.24337882076913,177.02594170164832</t>
+        </is>
+      </c>
+      <c r="E777" t="inlineStr">
+        <is>
+          <t>-39.24389417038957,177.02533868867954</t>
+        </is>
+      </c>
+      <c r="F777" t="inlineStr">
+        <is>
+          <t>-39.244461898736354,177.02481182821487</t>
+        </is>
+      </c>
+      <c r="G777" t="inlineStr">
+        <is>
+          <t>-39.24496147989698,177.02418637985406</t>
+        </is>
+      </c>
+      <c r="H777" t="inlineStr">
+        <is>
+          <t>-39.24556897681535,177.02371672886625</t>
+        </is>
+      </c>
+      <c r="I777" t="inlineStr">
+        <is>
+          <t>-39.24605920800633,177.02307816288163</t>
+        </is>
+      </c>
+      <c r="J777" t="inlineStr">
+        <is>
+          <t>-39.246566934568015,177.0224644702315</t>
+        </is>
+      </c>
+      <c r="K777" t="inlineStr">
+        <is>
+          <t>-39.24705873194267,177.0218293325679</t>
+        </is>
+      </c>
+      <c r="L777" t="inlineStr">
+        <is>
+          <t>-39.24762279366024,177.02133813363753</t>
+        </is>
+      </c>
+      <c r="M777" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="778">
+      <c r="A778" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-24 21:54:03+00:00</t>
+        </is>
+      </c>
+      <c r="B778" t="inlineStr">
+        <is>
+          <t>-39.24254965012364,177.02744072370714</t>
+        </is>
+      </c>
+      <c r="C778" t="inlineStr">
+        <is>
+          <t>-39.24291326580337,177.02661711057107</t>
+        </is>
+      </c>
+      <c r="D778" t="inlineStr">
+        <is>
+          <t>-39.24338562351732,177.0259515913549</t>
+        </is>
+      </c>
+      <c r="E778" t="inlineStr">
+        <is>
+          <t>-39.24388576461469,177.0253264685349</t>
+        </is>
+      </c>
+      <c r="F778" t="inlineStr">
+        <is>
+          <t>-39.24444479566701,177.0247869640768</t>
+        </is>
+      </c>
+      <c r="G778" t="inlineStr">
+        <is>
+          <t>-39.244951450638574,177.02417185242396</t>
+        </is>
+      </c>
+      <c r="H778" t="inlineStr">
+        <is>
+          <t>-39.24557490593233,177.02372518932285</t>
+        </is>
+      </c>
+      <c r="I778" t="inlineStr">
+        <is>
+          <t>-39.2460608705878,177.02308050847083</t>
+        </is>
+      </c>
+      <c r="J778" t="inlineStr">
+        <is>
+          <t>-39.24654936287943,177.02243967992231</t>
+        </is>
+      </c>
+      <c r="K778" t="inlineStr">
+        <is>
+          <t>-39.24707751548022,177.02186383766843</t>
+        </is>
+      </c>
+      <c r="L778" t="inlineStr">
+        <is>
+          <t>-39.24764704925944,177.02139821252965</t>
+        </is>
+      </c>
+      <c r="M778" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="779">
+      <c r="A779" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-08 22:00:23+00:00</t>
+        </is>
+      </c>
+      <c r="B779" t="inlineStr">
+        <is>
+          <t>-39.24250474349995,177.02737543867124</t>
+        </is>
+      </c>
+      <c r="C779" t="inlineStr">
+        <is>
+          <t>-39.24291249081125,177.026615983899</t>
+        </is>
+      </c>
+      <c r="D779" t="inlineStr">
+        <is>
+          <t>-39.243388034617716,177.02595509656783</t>
+        </is>
+      </c>
+      <c r="E779" t="inlineStr">
+        <is>
+          <t>-39.24388838769353,177.02533028191306</t>
+        </is>
+      </c>
+      <c r="F779" t="inlineStr">
+        <is>
+          <t>-39.24444714717379,177.02479038265432</t>
+        </is>
+      </c>
+      <c r="G779" t="inlineStr">
+        <is>
+          <t>-39.244957749623744,177.02418097653413</t>
+        </is>
+      </c>
+      <c r="H779" t="inlineStr">
+        <is>
+          <t>-39.245502061217685,177.02362124491452</t>
+        </is>
+      </c>
+      <c r="I779" t="inlineStr">
+        <is>
+          <t>-39.24607170334386,177.02309579145302</t>
+        </is>
+      </c>
+      <c r="J779" t="inlineStr">
+        <is>
+          <t>-39.246559209491394,177.0224535716157</t>
+        </is>
+      </c>
+      <c r="K779" t="inlineStr">
+        <is>
+          <t>-39.24706549195335,177.02184175061026</t>
+        </is>
+      </c>
+      <c r="L779" t="inlineStr">
+        <is>
+          <t>-39.24762546611251,177.02134475305044</t>
+        </is>
+      </c>
+      <c r="M779" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="780">
+      <c r="A780" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-17 21:54:15+00:00</t>
+        </is>
+      </c>
+      <c r="B780" t="inlineStr">
+        <is>
+          <t>-39.24257875892764,177.02748304202422</t>
+        </is>
+      </c>
+      <c r="C780" t="inlineStr">
+        <is>
+          <t>-39.242937529012245,177.02665238408645</t>
+        </is>
+      </c>
+      <c r="D780" t="inlineStr">
+        <is>
+          <t>-39.24341266227924,177.02599089982766</t>
+        </is>
+      </c>
+      <c r="E780" t="inlineStr">
+        <is>
+          <t>-39.24394639346917,177.0254146096434</t>
+        </is>
+      </c>
+      <c r="F780" t="inlineStr">
+        <is>
+          <t>-39.24446837696942,177.02482124616031</t>
+        </is>
+      </c>
+      <c r="G780" t="inlineStr">
+        <is>
+          <t>-39.24501390945486,177.02426232444165</t>
+        </is>
+      </c>
+      <c r="H780" t="inlineStr">
+        <is>
+          <t>-39.24557956145039,177.02373183243998</t>
+        </is>
+      </c>
+      <c r="I780" t="inlineStr">
+        <is>
+          <t>-39.24609483226627,177.02312842204063</t>
+        </is>
+      </c>
+      <c r="J780" t="inlineStr">
+        <is>
+          <t>-39.2465657626733,177.02246281691038</t>
+        </is>
+      </c>
+      <c r="K780" t="inlineStr">
+        <is>
+          <t>-39.2470933060278,177.02189284471746</t>
+        </is>
+      </c>
+      <c r="L780" t="inlineStr">
+        <is>
+          <t>-39.24766185137797,177.0214348760781</t>
+        </is>
+      </c>
+      <c r="M780" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="781">
+      <c r="A781" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-24 22:00:21+00:00</t>
+        </is>
+      </c>
+      <c r="B781" t="inlineStr">
+        <is>
+          <t>-39.242544991691425,177.02743395129392</t>
+        </is>
+      </c>
+      <c r="C781" t="inlineStr">
+        <is>
+          <t>-39.24295600958092,177.026679250908</t>
+        </is>
+      </c>
+      <c r="D781" t="inlineStr">
+        <is>
+          <t>-39.243430387828894,177.02601666894566</t>
+        </is>
+      </c>
+      <c r="E781" t="inlineStr">
+        <is>
+          <t>-39.24393572231933,177.025399096104</t>
+        </is>
+      </c>
+      <c r="F781" t="inlineStr">
+        <is>
+          <t>-39.24446529682803,177.0248167683026</t>
+        </is>
+      </c>
+      <c r="G781" t="inlineStr">
+        <is>
+          <t>-39.24501966415795,177.02427066018183</t>
+        </is>
+      </c>
+      <c r="H781" t="inlineStr">
+        <is>
+          <t>-39.24556405452904,177.02370970509205</t>
+        </is>
+      </c>
+      <c r="I781" t="inlineStr">
+        <is>
+          <t>-39.246101655772655,177.02313804873995</t>
+        </is>
+      </c>
+      <c r="J781" t="inlineStr">
+        <is>
+          <t>-39.24658499790745,177.0224899541881</t>
+        </is>
+      </c>
+      <c r="K781" t="inlineStr">
+        <is>
+          <t>-39.24708561716739,177.02187872036848</t>
+        </is>
+      </c>
+      <c r="L781" t="inlineStr"/>
+      <c r="M781" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="782">
+      <c r="A782" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-25 21:53:55+00:00</t>
+        </is>
+      </c>
+      <c r="B782" t="inlineStr">
+        <is>
+          <t>-39.242562254289,177.02745904760843</t>
+        </is>
+      </c>
+      <c r="C782" t="inlineStr">
+        <is>
+          <t>-39.242938721307205,177.02665411742936</t>
+        </is>
+      </c>
+      <c r="D782" t="inlineStr">
+        <is>
+          <t>-39.24341477530287,177.02599397170616</t>
+        </is>
+      </c>
+      <c r="E782" t="inlineStr">
+        <is>
+          <t>-39.24392970116671,177.02539034265646</t>
+        </is>
+      </c>
+      <c r="F782" t="inlineStr">
+        <is>
+          <t>-39.24446524383636,177.0248166912642</t>
+        </is>
+      </c>
+      <c r="G782" t="inlineStr">
+        <is>
+          <t>-39.24500509486795,177.02424955643627</t>
+        </is>
+      </c>
+      <c r="H782" t="inlineStr">
+        <is>
+          <t>-39.24559577400905,177.02375496670314</t>
+        </is>
+      </c>
+      <c r="I782" t="inlineStr">
+        <is>
+          <t>-39.24607999027083,177.02310748275434</t>
+        </is>
+      </c>
+      <c r="J782" t="inlineStr">
+        <is>
+          <t>-39.246584398490235,177.0224891085234</t>
+        </is>
+      </c>
+      <c r="K782" t="inlineStr">
+        <is>
+          <t>-39.2470919127445,177.02189028527144</t>
+        </is>
+      </c>
+      <c r="L782" t="inlineStr"/>
+      <c r="M782" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0288/nzd0288.xlsx
+++ b/data/nzd0288/nzd0288.xlsx
@@ -39414,7 +39414,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W12"/>
+  <dimension ref="A1:X12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -39505,35 +39505,40 @@
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
+          <t>ERODIBILITY</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
           <t>geometry</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>land_x</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>land_y</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>sea_x</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>sea_y</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>center_x</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>center_y</t>
         </is>
@@ -39592,27 +39597,28 @@
       <c r="P2" t="n">
         <v>354.9135323923156</v>
       </c>
-      <c r="Q2" t="inlineStr">
+      <c r="Q2" t="inlineStr"/>
+      <c r="R2" t="inlineStr">
         <is>
           <t>LINESTRING (177.0243176214816 -39.24040129925784, 177.03220248620832 -39.245824786246494)</t>
         </is>
       </c>
-      <c r="R2" t="n">
+      <c r="S2" t="n">
         <v>177.0243176214816</v>
       </c>
-      <c r="S2" t="n">
+      <c r="T2" t="n">
         <v>-39.24040129925784</v>
       </c>
-      <c r="T2" t="n">
+      <c r="U2" t="n">
         <v>177.0322024862083</v>
       </c>
-      <c r="U2" t="n">
+      <c r="V2" t="n">
         <v>-39.24582478624649</v>
       </c>
-      <c r="V2" t="n">
+      <c r="W2" t="n">
         <v>177.028260053845</v>
       </c>
-      <c r="W2" t="n">
+      <c r="X2" t="n">
         <v>-39.24311304275217</v>
       </c>
     </row>
@@ -39669,27 +39675,28 @@
       <c r="P3" t="n">
         <v>336.6316954546965</v>
       </c>
-      <c r="Q3" t="inlineStr">
+      <c r="Q3" t="inlineStr"/>
+      <c r="R3" t="inlineStr">
         <is>
           <t>LINESTRING (177.0237024924006 -39.240908320032176, 177.03158736890822 -39.246331820537236)</t>
         </is>
       </c>
-      <c r="R3" t="n">
+      <c r="S3" t="n">
         <v>177.0237024924006</v>
       </c>
-      <c r="S3" t="n">
+      <c r="T3" t="n">
         <v>-39.24090832003218</v>
       </c>
-      <c r="T3" t="n">
+      <c r="U3" t="n">
         <v>177.0315873689082</v>
       </c>
-      <c r="U3" t="n">
+      <c r="V3" t="n">
         <v>-39.24633182053724</v>
       </c>
-      <c r="V3" t="n">
+      <c r="W3" t="n">
         <v>177.0276449306544</v>
       </c>
-      <c r="W3" t="n">
+      <c r="X3" t="n">
         <v>-39.24362007028471</v>
       </c>
     </row>
@@ -39746,27 +39753,28 @@
       <c r="P4" t="n">
         <v>328.8124107614767</v>
       </c>
-      <c r="Q4" t="inlineStr">
+      <c r="Q4" t="inlineStr"/>
+      <c r="R4" t="inlineStr">
         <is>
           <t>LINESTRING (177.02308736332 -39.24141533714155, 177.03097225160738 -39.24683885116325)</t>
         </is>
       </c>
-      <c r="R4" t="n">
+      <c r="S4" t="n">
         <v>177.02308736332</v>
       </c>
-      <c r="S4" t="n">
+      <c r="T4" t="n">
         <v>-39.24141533714155</v>
       </c>
-      <c r="T4" t="n">
+      <c r="U4" t="n">
         <v>177.0309722516074</v>
       </c>
-      <c r="U4" t="n">
+      <c r="V4" t="n">
         <v>-39.24683885116325</v>
       </c>
-      <c r="V4" t="n">
+      <c r="W4" t="n">
         <v>177.0270298074637</v>
       </c>
-      <c r="W4" t="n">
+      <c r="X4" t="n">
         <v>-39.2441270941524</v>
       </c>
     </row>
@@ -39823,27 +39831,28 @@
       <c r="P5" t="n">
         <v>333.8086412477575</v>
       </c>
-      <c r="Q5" t="inlineStr">
+      <c r="Q5" t="inlineStr"/>
+      <c r="R5" t="inlineStr">
         <is>
           <t>LINESTRING (177.02247223423973 -39.241922350585966, 177.0303571343058 -39.24734587812444)</t>
         </is>
       </c>
-      <c r="R5" t="n">
+      <c r="S5" t="n">
         <v>177.0224722342397</v>
       </c>
-      <c r="S5" t="n">
+      <c r="T5" t="n">
         <v>-39.24192235058597</v>
       </c>
-      <c r="T5" t="n">
+      <c r="U5" t="n">
         <v>177.0303571343058</v>
       </c>
-      <c r="U5" t="n">
+      <c r="V5" t="n">
         <v>-39.24734587812444</v>
       </c>
-      <c r="V5" t="n">
+      <c r="W5" t="n">
         <v>177.0264146842728</v>
       </c>
-      <c r="W5" t="n">
+      <c r="X5" t="n">
         <v>-39.24463411435521</v>
       </c>
     </row>
@@ -39900,27 +39909,28 @@
       <c r="P6" t="n">
         <v>339.6259358173671</v>
       </c>
-      <c r="Q6" t="inlineStr">
+      <c r="Q6" t="inlineStr"/>
+      <c r="R6" t="inlineStr">
         <is>
           <t>LINESTRING (177.02185710515982 -39.24242936036543, 177.0297420170036 -39.24785290142081)</t>
         </is>
       </c>
-      <c r="R6" t="n">
+      <c r="S6" t="n">
         <v>177.0218571051598</v>
       </c>
-      <c r="S6" t="n">
+      <c r="T6" t="n">
         <v>-39.24242936036543</v>
       </c>
-      <c r="T6" t="n">
+      <c r="U6" t="n">
         <v>177.0297420170036</v>
       </c>
-      <c r="U6" t="n">
+      <c r="V6" t="n">
         <v>-39.24785290142081</v>
       </c>
-      <c r="V6" t="n">
+      <c r="W6" t="n">
         <v>177.0257995610817</v>
       </c>
-      <c r="W6" t="n">
+      <c r="X6" t="n">
         <v>-39.24514113089312</v>
       </c>
     </row>
@@ -39977,27 +39987,28 @@
       <c r="P7" t="n">
         <v>344.6959510904297</v>
       </c>
-      <c r="Q7" t="inlineStr">
+      <c r="Q7" t="inlineStr"/>
+      <c r="R7" t="inlineStr">
         <is>
           <t>LINESTRING (177.0212469233241 -39.24293207653271, 177.0291192279301 -39.24836667284276)</t>
         </is>
       </c>
-      <c r="R7" t="n">
+      <c r="S7" t="n">
         <v>177.0212469233241</v>
       </c>
-      <c r="S7" t="n">
+      <c r="T7" t="n">
         <v>-39.24293207653271</v>
       </c>
-      <c r="T7" t="n">
+      <c r="U7" t="n">
         <v>177.0291192279301</v>
       </c>
-      <c r="U7" t="n">
+      <c r="V7" t="n">
         <v>-39.24836667284276</v>
       </c>
-      <c r="V7" t="n">
+      <c r="W7" t="n">
         <v>177.0251830756271</v>
       </c>
-      <c r="W7" t="n">
+      <c r="X7" t="n">
         <v>-39.24564937468773</v>
       </c>
     </row>
@@ -40054,27 +40065,28 @@
       <c r="P8" t="n">
         <v>353.5861691817814</v>
       </c>
-      <c r="Q8" t="inlineStr">
+      <c r="Q8" t="inlineStr"/>
+      <c r="R8" t="inlineStr">
         <is>
           <t>LINESTRING (177.02064999892642 -39.24341969066937, 177.02846989261752 -39.248899744122006)</t>
         </is>
       </c>
-      <c r="R8" t="n">
+      <c r="S8" t="n">
         <v>177.0206499989264</v>
       </c>
-      <c r="S8" t="n">
+      <c r="T8" t="n">
         <v>-39.24341969066937</v>
       </c>
-      <c r="T8" t="n">
+      <c r="U8" t="n">
         <v>177.0284698926175</v>
       </c>
-      <c r="U8" t="n">
+      <c r="V8" t="n">
         <v>-39.24889974412201</v>
       </c>
-      <c r="V8" t="n">
+      <c r="W8" t="n">
         <v>177.024559945772</v>
       </c>
-      <c r="W8" t="n">
+      <c r="X8" t="n">
         <v>-39.24615971739568</v>
       </c>
     </row>
@@ -40131,27 +40143,28 @@
       <c r="P9" t="n">
         <v>359.4364940866049</v>
       </c>
-      <c r="Q9" t="inlineStr">
+      <c r="Q9" t="inlineStr"/>
+      <c r="R9" t="inlineStr">
         <is>
           <t>LINESTRING (177.02004086412586 -39.243906224037836, 177.0278207411175 -39.24942053462572)</t>
         </is>
       </c>
-      <c r="R9" t="n">
+      <c r="S9" t="n">
         <v>177.0200408641259</v>
       </c>
-      <c r="S9" t="n">
+      <c r="T9" t="n">
         <v>-39.24390622403784</v>
       </c>
-      <c r="T9" t="n">
+      <c r="U9" t="n">
         <v>177.0278207411175</v>
       </c>
-      <c r="U9" t="n">
+      <c r="V9" t="n">
         <v>-39.24942053462572</v>
       </c>
-      <c r="V9" t="n">
+      <c r="W9" t="n">
         <v>177.0239308026217</v>
       </c>
-      <c r="W9" t="n">
+      <c r="X9" t="n">
         <v>-39.24666337933178</v>
       </c>
     </row>
@@ -40208,27 +40221,28 @@
       <c r="P10" t="n">
         <v>359.905113728826</v>
       </c>
-      <c r="Q10" t="inlineStr">
+      <c r="Q10" t="inlineStr"/>
+      <c r="R10" t="inlineStr">
         <is>
           <t>LINESTRING (177.01941603882045 -39.24440605698643, 177.0271959255502 -39.24992038125126)</t>
         </is>
       </c>
-      <c r="R10" t="n">
+      <c r="S10" t="n">
         <v>177.0194160388205</v>
       </c>
-      <c r="S10" t="n">
+      <c r="T10" t="n">
         <v>-39.24440605698643</v>
       </c>
-      <c r="T10" t="n">
+      <c r="U10" t="n">
         <v>177.0271959255502</v>
       </c>
-      <c r="U10" t="n">
+      <c r="V10" t="n">
         <v>-39.24992038125126</v>
       </c>
-      <c r="V10" t="n">
+      <c r="W10" t="n">
         <v>177.0233059821853</v>
       </c>
-      <c r="W10" t="n">
+      <c r="X10" t="n">
         <v>-39.24716321911885</v>
       </c>
     </row>
@@ -40285,27 +40299,28 @@
       <c r="P11" t="n">
         <v>366.0524627534959</v>
       </c>
-      <c r="Q11" t="inlineStr">
+      <c r="Q11" t="inlineStr"/>
+      <c r="R11" t="inlineStr">
         <is>
           <t>LINESTRING (177.0184595791996 -39.24522423822858, 177.0270849424869 -39.2499194849966)</t>
         </is>
       </c>
-      <c r="R11" t="n">
+      <c r="S11" t="n">
         <v>177.0184595791996</v>
       </c>
-      <c r="S11" t="n">
+      <c r="T11" t="n">
         <v>-39.24522423822858</v>
       </c>
-      <c r="T11" t="n">
+      <c r="U11" t="n">
         <v>177.0270849424869</v>
       </c>
-      <c r="U11" t="n">
+      <c r="V11" t="n">
         <v>-39.2499194849966</v>
       </c>
-      <c r="V11" t="n">
+      <c r="W11" t="n">
         <v>177.0227722608433</v>
       </c>
-      <c r="W11" t="n">
+      <c r="X11" t="n">
         <v>-39.24757186161259</v>
       </c>
     </row>
@@ -40362,27 +40377,28 @@
       <c r="P12" t="n">
         <v>362.3166685349862</v>
       </c>
-      <c r="Q12" t="inlineStr">
+      <c r="Q12" t="inlineStr"/>
+      <c r="R12" t="inlineStr">
         <is>
           <t>LINESTRING (177.01775047319563 -39.24617426126433, 177.02709656077104 -39.24994741445621)</t>
         </is>
       </c>
-      <c r="R12" t="n">
+      <c r="S12" t="n">
         <v>177.0177504731956</v>
       </c>
-      <c r="S12" t="n">
+      <c r="T12" t="n">
         <v>-39.24617426126433</v>
       </c>
-      <c r="T12" t="n">
+      <c r="U12" t="n">
         <v>177.027096560771</v>
       </c>
-      <c r="U12" t="n">
+      <c r="V12" t="n">
         <v>-39.24994741445621</v>
       </c>
-      <c r="V12" t="n">
+      <c r="W12" t="n">
         <v>177.0224235169833</v>
       </c>
-      <c r="W12" t="n">
+      <c r="X12" t="n">
         <v>-39.24806083786027</v>
       </c>
     </row>

--- a/data/nzd0288/nzd0288.xlsx
+++ b/data/nzd0288/nzd0288.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M782"/>
+  <dimension ref="A1:M789"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -31432,6 +31432,317 @@
         </is>
       </c>
     </row>
+    <row r="783">
+      <c r="A783" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-04 22:00:06+00:00</t>
+        </is>
+      </c>
+      <c r="B783" t="n">
+        <v>328.2042857142857</v>
+      </c>
+      <c r="C783" t="n">
+        <v>311.61</v>
+      </c>
+      <c r="D783" t="n">
+        <v>306.2244444444444</v>
+      </c>
+      <c r="E783" t="n">
+        <v>322.62</v>
+      </c>
+      <c r="F783" t="n">
+        <v>342.1044444444445</v>
+      </c>
+      <c r="G783" t="n">
+        <v>346.9444444444445</v>
+      </c>
+      <c r="H783" t="n">
+        <v>339.7642857142857</v>
+      </c>
+      <c r="I783" t="n">
+        <v>351.5742857142857</v>
+      </c>
+      <c r="J783" t="n">
+        <v>361.2644444444445</v>
+      </c>
+      <c r="K783" t="inlineStr"/>
+      <c r="L783" t="inlineStr"/>
+      <c r="M783" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="784">
+      <c r="A784" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-05 21:54:08+00:00</t>
+        </is>
+      </c>
+      <c r="B784" t="n">
+        <v>341.3642857142857</v>
+      </c>
+      <c r="C784" t="n">
+        <v>319.64</v>
+      </c>
+      <c r="D784" t="n">
+        <v>316.9633333333333</v>
+      </c>
+      <c r="E784" t="n">
+        <v>320.52</v>
+      </c>
+      <c r="F784" t="n">
+        <v>324.2633333333333</v>
+      </c>
+      <c r="G784" t="n">
+        <v>329.2533333333333</v>
+      </c>
+      <c r="H784" t="n">
+        <v>324.8942857142857</v>
+      </c>
+      <c r="I784" t="n">
+        <v>339.1242857142857</v>
+      </c>
+      <c r="J784" t="n">
+        <v>345.5133333333333</v>
+      </c>
+      <c r="K784" t="n">
+        <v>352.87</v>
+      </c>
+      <c r="L784" t="n">
+        <v>343.5754545454545</v>
+      </c>
+      <c r="M784" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="785">
+      <c r="A785" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-13 21:53:52+00:00</t>
+        </is>
+      </c>
+      <c r="B785" t="n">
+        <v>356.3457142857143</v>
+      </c>
+      <c r="C785" t="n">
+        <v>336.91</v>
+      </c>
+      <c r="D785" t="n">
+        <v>321.6544444444444</v>
+      </c>
+      <c r="E785" t="n">
+        <v>326.05</v>
+      </c>
+      <c r="F785" t="n">
+        <v>336.0244444444444</v>
+      </c>
+      <c r="G785" t="n">
+        <v>341.4744444444444</v>
+      </c>
+      <c r="H785" t="n">
+        <v>351.7157142857143</v>
+      </c>
+      <c r="I785" t="n">
+        <v>349.5357142857143</v>
+      </c>
+      <c r="J785" t="n">
+        <v>347.3844444444445</v>
+      </c>
+      <c r="K785" t="n">
+        <v>359.04</v>
+      </c>
+      <c r="L785" t="n">
+        <v>352.7981818181818</v>
+      </c>
+      <c r="M785" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="786">
+      <c r="A786" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-21 21:53:56+00:00</t>
+        </is>
+      </c>
+      <c r="B786" t="n">
+        <v>358.7628571428572</v>
+      </c>
+      <c r="C786" t="n">
+        <v>342.03</v>
+      </c>
+      <c r="D786" t="n">
+        <v>331.1111111111111</v>
+      </c>
+      <c r="E786" t="n">
+        <v>329.26</v>
+      </c>
+      <c r="F786" t="n">
+        <v>336.9611111111111</v>
+      </c>
+      <c r="G786" t="n">
+        <v>344.1311111111111</v>
+      </c>
+      <c r="H786" t="n">
+        <v>353.3528571428571</v>
+      </c>
+      <c r="I786" t="n">
+        <v>355.7328571428571</v>
+      </c>
+      <c r="J786" t="n">
+        <v>353.5311111111111</v>
+      </c>
+      <c r="K786" t="n">
+        <v>366.93</v>
+      </c>
+      <c r="L786" t="n">
+        <v>354.5981818181818</v>
+      </c>
+      <c r="M786" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="787">
+      <c r="A787" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-05 21:59:53+00:00</t>
+        </is>
+      </c>
+      <c r="B787" t="n">
+        <v>363.4028571428572</v>
+      </c>
+      <c r="C787" t="n">
+        <v>336.55</v>
+      </c>
+      <c r="D787" t="n">
+        <v>337.54</v>
+      </c>
+      <c r="E787" t="n">
+        <v>339.6</v>
+      </c>
+      <c r="F787" t="n">
+        <v>337.08</v>
+      </c>
+      <c r="G787" t="n">
+        <v>347.94</v>
+      </c>
+      <c r="H787" t="n">
+        <v>359.1928571428572</v>
+      </c>
+      <c r="I787" t="n">
+        <v>358.0628571428572</v>
+      </c>
+      <c r="J787" t="n">
+        <v>360</v>
+      </c>
+      <c r="K787" t="n">
+        <v>362.66</v>
+      </c>
+      <c r="L787" t="n">
+        <v>364.0927272727273</v>
+      </c>
+      <c r="M787" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="788">
+      <c r="A788" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-06 21:53:55+00:00</t>
+        </is>
+      </c>
+      <c r="B788" t="n">
+        <v>362.1728571428571</v>
+      </c>
+      <c r="C788" t="n">
+        <v>336.76</v>
+      </c>
+      <c r="D788" t="n">
+        <v>335.0122222222222</v>
+      </c>
+      <c r="E788" t="n">
+        <v>339.09</v>
+      </c>
+      <c r="F788" t="n">
+        <v>338.0422222222222</v>
+      </c>
+      <c r="G788" t="n">
+        <v>343.4622222222222</v>
+      </c>
+      <c r="H788" t="n">
+        <v>358.9228571428571</v>
+      </c>
+      <c r="I788" t="n">
+        <v>359.6528571428572</v>
+      </c>
+      <c r="J788" t="n">
+        <v>356.8222222222223</v>
+      </c>
+      <c r="K788" t="n">
+        <v>362.3</v>
+      </c>
+      <c r="L788" t="n">
+        <v>358.509090909091</v>
+      </c>
+      <c r="M788" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="789">
+      <c r="A789" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-13 22:00:07+00:00</t>
+        </is>
+      </c>
+      <c r="B789" t="n">
+        <v>366.63</v>
+      </c>
+      <c r="C789" t="n">
+        <v>341.07</v>
+      </c>
+      <c r="D789" t="n">
+        <v>339.8488888888889</v>
+      </c>
+      <c r="E789" t="n">
+        <v>344.89</v>
+      </c>
+      <c r="F789" t="n">
+        <v>340.4388888888889</v>
+      </c>
+      <c r="G789" t="n">
+        <v>348.0688888888889</v>
+      </c>
+      <c r="H789" t="n">
+        <v>362.66</v>
+      </c>
+      <c r="I789" t="n">
+        <v>359.53</v>
+      </c>
+      <c r="J789" t="n">
+        <v>362.6088888888889</v>
+      </c>
+      <c r="K789" t="n">
+        <v>366.33</v>
+      </c>
+      <c r="L789" t="n">
+        <v>360.7745454545454</v>
+      </c>
+      <c r="M789" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -31443,7 +31754,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B795"/>
+  <dimension ref="A1:B802"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -39401,6 +39712,76 @@
       </c>
       <c r="B795" t="n">
         <v>-0.61</v>
+      </c>
+    </row>
+    <row r="796">
+      <c r="A796" t="inlineStr">
+        <is>
+          <t>2025-03-04 22:00:00+00:00</t>
+        </is>
+      </c>
+      <c r="B796" t="n">
+        <v>0.83</v>
+      </c>
+    </row>
+    <row r="797">
+      <c r="A797" t="inlineStr">
+        <is>
+          <t>2025-03-05 21:50:00+00:00</t>
+        </is>
+      </c>
+      <c r="B797" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+    </row>
+    <row r="798">
+      <c r="A798" t="inlineStr">
+        <is>
+          <t>2025-03-13 21:50:00+00:00</t>
+        </is>
+      </c>
+      <c r="B798" t="n">
+        <v>-0.34</v>
+      </c>
+    </row>
+    <row r="799">
+      <c r="A799" t="inlineStr">
+        <is>
+          <t>2025-03-21 21:50:00+00:00</t>
+        </is>
+      </c>
+      <c r="B799" t="n">
+        <v>0.32</v>
+      </c>
+    </row>
+    <row r="800">
+      <c r="A800" t="inlineStr">
+        <is>
+          <t>2025-04-05 22:00:00+00:00</t>
+        </is>
+      </c>
+      <c r="B800" t="n">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="801">
+      <c r="A801" t="inlineStr">
+        <is>
+          <t>2025-04-06 21:50:00+00:00</t>
+        </is>
+      </c>
+      <c r="B801" t="n">
+        <v>-0.17</v>
+      </c>
+    </row>
+    <row r="802">
+      <c r="A802" t="inlineStr">
+        <is>
+          <t>2025-04-13 22:00:00+00:00</t>
+        </is>
+      </c>
+      <c r="B802" t="n">
+        <v>-0.14</v>
       </c>
     </row>
   </sheetData>
@@ -39574,28 +39955,28 @@
         <v>0.037</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.0777382147476233</v>
+        <v>-0.07533316455511765</v>
       </c>
       <c r="J2" t="n">
-        <v>781</v>
+        <v>788</v>
       </c>
       <c r="K2" t="n">
-        <v>501</v>
+        <v>508</v>
       </c>
       <c r="L2" t="n">
-        <v>0.0003847936531982121</v>
+        <v>0.0003704466037903753</v>
       </c>
       <c r="M2" t="n">
-        <v>11.61330654334327</v>
+        <v>11.60376347171614</v>
       </c>
       <c r="N2" t="n">
-        <v>909.5678697802538</v>
+        <v>899.3454080900549</v>
       </c>
       <c r="O2" t="n">
-        <v>30.15904291883703</v>
+        <v>29.98908815035987</v>
       </c>
       <c r="P2" t="n">
-        <v>354.9135323923156</v>
+        <v>354.8902226936729</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -39652,28 +40033,28 @@
         <v>0.0564</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.1816440440211524</v>
+        <v>-0.1812707589255692</v>
       </c>
       <c r="J3" t="n">
-        <v>781</v>
+        <v>788</v>
       </c>
       <c r="K3" t="n">
-        <v>447</v>
+        <v>454</v>
       </c>
       <c r="L3" t="n">
-        <v>0.03326003583656745</v>
+        <v>0.0330570970242452</v>
       </c>
       <c r="M3" t="n">
-        <v>5.869775111181398</v>
+        <v>5.924900655632054</v>
       </c>
       <c r="N3" t="n">
-        <v>55.22644481469259</v>
+        <v>56.180508898327</v>
       </c>
       <c r="O3" t="n">
-        <v>7.431449711509363</v>
+        <v>7.495365828185239</v>
       </c>
       <c r="P3" t="n">
-        <v>336.6316954546965</v>
+        <v>336.6276575438098</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -39730,28 +40111,28 @@
         <v>0.0515</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.6465925885193745</v>
+        <v>-0.6152483117802723</v>
       </c>
       <c r="J4" t="n">
-        <v>781</v>
+        <v>788</v>
       </c>
       <c r="K4" t="n">
-        <v>594</v>
+        <v>601</v>
       </c>
       <c r="L4" t="n">
-        <v>0.01134937108761402</v>
+        <v>0.01050552038299679</v>
       </c>
       <c r="M4" t="n">
-        <v>23.44653105687599</v>
+        <v>23.23434069031032</v>
       </c>
       <c r="N4" t="n">
-        <v>2088.098853845016</v>
+        <v>2067.728372964776</v>
       </c>
       <c r="O4" t="n">
-        <v>45.69572030119468</v>
+        <v>45.47228136969571</v>
       </c>
       <c r="P4" t="n">
-        <v>328.8124107614767</v>
+        <v>328.5131518195838</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -39808,28 +40189,28 @@
         <v>0.0511</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.1873675304364752</v>
+        <v>-0.1811000816447187</v>
       </c>
       <c r="J5" t="n">
-        <v>781</v>
+        <v>788</v>
       </c>
       <c r="K5" t="n">
-        <v>541</v>
+        <v>548</v>
       </c>
       <c r="L5" t="n">
-        <v>0.003005228921961645</v>
+        <v>0.002874016161652837</v>
       </c>
       <c r="M5" t="n">
-        <v>10.56724281587909</v>
+        <v>10.51489350587358</v>
       </c>
       <c r="N5" t="n">
-        <v>682.3001988552218</v>
+        <v>674.6552784600574</v>
       </c>
       <c r="O5" t="n">
-        <v>26.12087668619148</v>
+        <v>25.97412709717224</v>
       </c>
       <c r="P5" t="n">
-        <v>333.8086412477575</v>
+        <v>333.7491961361237</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -39886,28 +40267,28 @@
         <v>0.0461</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.09698254277038099</v>
+        <v>-0.09842682626295965</v>
       </c>
       <c r="J6" t="n">
-        <v>781</v>
+        <v>788</v>
       </c>
       <c r="K6" t="n">
-        <v>626</v>
+        <v>633</v>
       </c>
       <c r="L6" t="n">
-        <v>0.005272670961455783</v>
+        <v>0.005529738778971671</v>
       </c>
       <c r="M6" t="n">
-        <v>7.733220461351376</v>
+        <v>7.685504757633734</v>
       </c>
       <c r="N6" t="n">
-        <v>100.7679269516532</v>
+        <v>99.97500621934954</v>
       </c>
       <c r="O6" t="n">
-        <v>10.03832291529084</v>
+        <v>9.998750232871583</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6259358173671</v>
+        <v>339.6398073620419</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -39964,28 +40345,28 @@
         <v>0.0497</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.07630970370859008</v>
+        <v>-0.0757044986692972</v>
       </c>
       <c r="J7" t="n">
-        <v>781</v>
+        <v>788</v>
       </c>
       <c r="K7" t="n">
-        <v>659</v>
+        <v>666</v>
       </c>
       <c r="L7" t="n">
-        <v>0.003589261406025557</v>
+        <v>0.003591590595772298</v>
       </c>
       <c r="M7" t="n">
-        <v>7.292742049880829</v>
+        <v>7.263442502064891</v>
       </c>
       <c r="N7" t="n">
-        <v>90.96331852324271</v>
+        <v>90.39641878042112</v>
       </c>
       <c r="O7" t="n">
-        <v>9.537469188586808</v>
+        <v>9.507703128538518</v>
       </c>
       <c r="P7" t="n">
-        <v>344.6959510904297</v>
+        <v>344.6899458222507</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -40042,28 +40423,28 @@
         <v>0.036</v>
       </c>
       <c r="I8" t="n">
-        <v>-0.1157048072086003</v>
+        <v>-0.1167705358568135</v>
       </c>
       <c r="J8" t="n">
-        <v>781</v>
+        <v>788</v>
       </c>
       <c r="K8" t="n">
-        <v>600</v>
+        <v>607</v>
       </c>
       <c r="L8" t="n">
-        <v>0.006902366131555815</v>
+        <v>0.007065642069330247</v>
       </c>
       <c r="M8" t="n">
-        <v>7.649371546149638</v>
+        <v>7.675962888371479</v>
       </c>
       <c r="N8" t="n">
-        <v>106.6435901296596</v>
+        <v>107.1870687494121</v>
       </c>
       <c r="O8" t="n">
-        <v>10.32683834141213</v>
+        <v>10.35311879335942</v>
       </c>
       <c r="P8" t="n">
-        <v>353.5861691817814</v>
+        <v>353.596253635686</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -40120,28 +40501,28 @@
         <v>0.0355</v>
       </c>
       <c r="I9" t="n">
-        <v>-0.1151046968208607</v>
+        <v>-0.1215557544799824</v>
       </c>
       <c r="J9" t="n">
-        <v>781</v>
+        <v>788</v>
       </c>
       <c r="K9" t="n">
-        <v>618</v>
+        <v>625</v>
       </c>
       <c r="L9" t="n">
-        <v>0.0110965191041329</v>
+        <v>0.01250880454138992</v>
       </c>
       <c r="M9" t="n">
-        <v>6.234070149905961</v>
+        <v>6.225871594473531</v>
       </c>
       <c r="N9" t="n">
-        <v>66.34009443008598</v>
+        <v>66.22817372260714</v>
       </c>
       <c r="O9" t="n">
-        <v>8.144942874574749</v>
+        <v>8.138069410038669</v>
       </c>
       <c r="P9" t="n">
-        <v>359.4364940866049</v>
+        <v>359.49920703393</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -40198,28 +40579,28 @@
         <v>0.0486</v>
       </c>
       <c r="I10" t="n">
-        <v>-0.1015548444589456</v>
+        <v>-0.1055166669666834</v>
       </c>
       <c r="J10" t="n">
-        <v>781</v>
+        <v>788</v>
       </c>
       <c r="K10" t="n">
-        <v>650</v>
+        <v>657</v>
       </c>
       <c r="L10" t="n">
-        <v>0.01112443001419672</v>
+        <v>0.01214780603985932</v>
       </c>
       <c r="M10" t="n">
-        <v>5.424004824990147</v>
+        <v>5.424172414240982</v>
       </c>
       <c r="N10" t="n">
-        <v>51.21477106046225</v>
+        <v>51.12924524188757</v>
       </c>
       <c r="O10" t="n">
-        <v>7.1564496127942</v>
+        <v>7.150471679678732</v>
       </c>
       <c r="P10" t="n">
-        <v>359.905113728826</v>
+        <v>359.9433889779609</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -40276,28 +40657,28 @@
         <v>0.0517</v>
       </c>
       <c r="I11" t="n">
-        <v>-0.06157052436808264</v>
+        <v>-0.06629730451108244</v>
       </c>
       <c r="J11" t="n">
-        <v>781</v>
+        <v>788</v>
       </c>
       <c r="K11" t="n">
-        <v>655</v>
+        <v>661</v>
       </c>
       <c r="L11" t="n">
-        <v>0.003866449572824893</v>
+        <v>0.004539902578577504</v>
       </c>
       <c r="M11" t="n">
-        <v>5.675400856498102</v>
+        <v>5.66061512480815</v>
       </c>
       <c r="N11" t="n">
-        <v>54.5249861709332</v>
+        <v>54.30320302009058</v>
       </c>
       <c r="O11" t="n">
-        <v>7.384103613231141</v>
+        <v>7.369070702611733</v>
       </c>
       <c r="P11" t="n">
-        <v>366.0524627534959</v>
+        <v>366.0982759650396</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -40354,28 +40735,28 @@
         <v>0.0577</v>
       </c>
       <c r="I12" t="n">
-        <v>0.02097249425043226</v>
+        <v>0.007580385835630716</v>
       </c>
       <c r="J12" t="n">
-        <v>781</v>
+        <v>788</v>
       </c>
       <c r="K12" t="n">
-        <v>592</v>
+        <v>598</v>
       </c>
       <c r="L12" t="n">
-        <v>0.000345244863616978</v>
+        <v>4.546940442695657e-05</v>
       </c>
       <c r="M12" t="n">
-        <v>6.67429269385775</v>
+        <v>6.678607711304411</v>
       </c>
       <c r="N12" t="n">
-        <v>72.25396584171311</v>
+        <v>72.45946093106542</v>
       </c>
       <c r="O12" t="n">
-        <v>8.500233281605459</v>
+        <v>8.512312313999377</v>
       </c>
       <c r="P12" t="n">
-        <v>362.3166685349862</v>
+        <v>362.4440570449201</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
@@ -40413,7 +40794,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M782"/>
+  <dimension ref="A1:M789"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -84383,6 +84764,467 @@
         </is>
       </c>
     </row>
+    <row r="783">
+      <c r="A783" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-04 22:00:06+00:00</t>
+        </is>
+      </c>
+      <c r="B783" t="inlineStr">
+        <is>
+          <t>-39.24235791311518,177.02716197835352</t>
+        </is>
+      </c>
+      <c r="C783" t="inlineStr">
+        <is>
+          <t>-39.242766017078225,177.02640304331828</t>
+        </is>
+      </c>
+      <c r="D783" t="inlineStr">
+        <is>
+          <t>-39.243240937403904,177.025741250128</t>
+        </is>
+      </c>
+      <c r="E783" t="inlineStr">
+        <is>
+          <t>-39.24384570302941,177.02526822788528</t>
+        </is>
+      </c>
+      <c r="F783" t="inlineStr">
+        <is>
+          <t>-39.24446888039036,177.02482197802524</t>
+        </is>
+      </c>
+      <c r="G783" t="inlineStr">
+        <is>
+          <t>-39.24500467670603,177.02424895072525</t>
+        </is>
+      </c>
+      <c r="H783" t="inlineStr">
+        <is>
+          <t>-39.24546640040005,177.02357035950791</t>
+        </is>
+      </c>
+      <c r="I783" t="inlineStr">
+        <is>
+          <t>-39.24603733466393,177.02304730373427</t>
+        </is>
+      </c>
+      <c r="J783" t="inlineStr">
+        <is>
+          <t>-39.24659591538135,177.02250535669017</t>
+        </is>
+      </c>
+      <c r="K783" t="inlineStr"/>
+      <c r="L783" t="inlineStr"/>
+      <c r="M783" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="784">
+      <c r="A784" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-05 21:54:08+00:00</t>
+        </is>
+      </c>
+      <c r="B784" t="inlineStr">
+        <is>
+          <t>-39.24243636578333,177.02727603174645</t>
+        </is>
+      </c>
+      <c r="C784" t="inlineStr">
+        <is>
+          <t>-39.24281388786632,177.02647263674447</t>
+        </is>
+      </c>
+      <c r="D784" t="inlineStr">
+        <is>
+          <t>-39.24330495756786,177.0258343209352</t>
+        </is>
+      </c>
+      <c r="E784" t="inlineStr">
+        <is>
+          <t>-39.24383318377728,177.02525002769576</t>
+        </is>
+      </c>
+      <c r="F784" t="inlineStr">
+        <is>
+          <t>-39.244362519353864,177.02466735252563</t>
+        </is>
+      </c>
+      <c r="G784" t="inlineStr">
+        <is>
+          <t>-39.244898994464066,177.02409586951268</t>
+        </is>
+      </c>
+      <c r="H784" t="inlineStr">
+        <is>
+          <t>-39.24537682658001,177.0234425445322</t>
+        </is>
+      </c>
+      <c r="I784" t="inlineStr">
+        <is>
+          <t>-39.245961868963754,177.02294083615752</t>
+        </is>
+      </c>
+      <c r="J784" t="inlineStr">
+        <is>
+          <t>-39.24650043960305,177.0223706585975</t>
+        </is>
+      </c>
+      <c r="K784" t="inlineStr">
+        <is>
+          <t>-39.247045211916934,177.0218044964902</t>
+        </is>
+      </c>
+      <c r="L784" t="inlineStr">
+        <is>
+          <t>-39.247598873498255,177.02127888571215</t>
+        </is>
+      </c>
+      <c r="M784" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="785">
+      <c r="A785" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-13 21:53:52+00:00</t>
+        </is>
+      </c>
+      <c r="B785" t="inlineStr">
+        <is>
+          <t>-39.2425256766515,177.0274058711696</t>
+        </is>
+      </c>
+      <c r="C785" t="inlineStr">
+        <is>
+          <t>-39.24291684268996,177.02662231059642</t>
+        </is>
+      </c>
+      <c r="D785" t="inlineStr">
+        <is>
+          <t>-39.24333292372176,177.02587497747513</t>
+        </is>
+      </c>
+      <c r="E785" t="inlineStr">
+        <is>
+          <t>-39.243866151134334,177.02529795487527</t>
+        </is>
+      </c>
+      <c r="F785" t="inlineStr">
+        <is>
+          <t>-39.244432634069504,177.02476928377527</t>
+        </is>
+      </c>
+      <c r="G785" t="inlineStr">
+        <is>
+          <t>-39.244972000328,177.02420161875773</t>
+        </is>
+      </c>
+      <c r="H785" t="inlineStr">
+        <is>
+          <t>-39.24553839323141,177.0236730881591</t>
+        </is>
+      </c>
+      <c r="I785" t="inlineStr">
+        <is>
+          <t>-39.24602497786665,177.0230298706456</t>
+        </is>
+      </c>
+      <c r="J785" t="inlineStr">
+        <is>
+          <t>-39.246511781401985,177.0223866596781</t>
+        </is>
+      </c>
+      <c r="K785" t="inlineStr">
+        <is>
+          <t>-39.24707705105223,177.02186298452014</t>
+        </is>
+      </c>
+      <c r="L785" t="inlineStr">
+        <is>
+          <t>-39.24763711332571,177.02137360211933</t>
+        </is>
+      </c>
+      <c r="M785" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="786">
+      <c r="A786" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-21 21:53:56+00:00</t>
+        </is>
+      </c>
+      <c r="B786" t="inlineStr">
+        <is>
+          <t>-39.242540086285196,177.02742681983233</t>
+        </is>
+      </c>
+      <c r="C786" t="inlineStr">
+        <is>
+          <t>-39.24294736544483,177.02666668416714</t>
+        </is>
+      </c>
+      <c r="D786" t="inlineStr">
+        <is>
+          <t>-39.24338929978299,177.02595693584172</t>
+        </is>
+      </c>
+      <c r="E786" t="inlineStr">
+        <is>
+          <t>-39.24388528769125,177.02532577519344</t>
+        </is>
+      </c>
+      <c r="F786" t="inlineStr">
+        <is>
+          <t>-39.244438218071345,177.02477740169073</t>
+        </is>
+      </c>
+      <c r="G786" t="inlineStr">
+        <is>
+          <t>-39.24498787057648,177.0242246069169</t>
+        </is>
+      </c>
+      <c r="H786" t="inlineStr">
+        <is>
+          <t>-39.245548255019365,177.02368716025694</t>
+        </is>
+      </c>
+      <c r="I786" t="inlineStr">
+        <is>
+          <t>-39.24606254182849,177.02308286627672</t>
+        </is>
+      </c>
+      <c r="J786" t="inlineStr">
+        <is>
+          <t>-39.24654903959801,177.02243922383397</t>
+        </is>
+      </c>
+      <c r="K786" t="inlineStr">
+        <is>
+          <t>-39.24711776587991,177.02193777723028</t>
+        </is>
+      </c>
+      <c r="L786" t="inlineStr">
+        <is>
+          <t>-39.2476445765845,177.02139208793525</t>
+        </is>
+      </c>
+      <c r="M786" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="787">
+      <c r="A787" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-05 21:59:53+00:00</t>
+        </is>
+      </c>
+      <c r="B787" t="inlineStr">
+        <is>
+          <t>-39.242567747319505,177.0274670333648</t>
+        </is>
+      </c>
+      <c r="C787" t="inlineStr">
+        <is>
+          <t>-39.24291469655804,177.02661919058116</t>
+        </is>
+      </c>
+      <c r="D787" t="inlineStr">
+        <is>
+          <t>-39.243427625664054,177.02601265335358</t>
+        </is>
+      </c>
+      <c r="E787" t="inlineStr">
+        <is>
+          <t>-39.24394693000737,177.02541538965386</t>
+        </is>
+      </c>
+      <c r="F787" t="inlineStr">
+        <is>
+          <t>-39.244438926835464,177.02477843207868</t>
+        </is>
+      </c>
+      <c r="G787" t="inlineStr">
+        <is>
+          <t>-39.24501062389742,177.02425756528268</t>
+        </is>
+      </c>
+      <c r="H787" t="inlineStr">
+        <is>
+          <t>-39.2455834338773,177.02373735813882</t>
+        </is>
+      </c>
+      <c r="I787" t="inlineStr">
+        <is>
+          <t>-39.24607666510907,177.02310279157354</t>
+        </is>
+      </c>
+      <c r="J787" t="inlineStr">
+        <is>
+          <t>-39.24658825092427,177.0224945435821</t>
+        </is>
+      </c>
+      <c r="K787" t="inlineStr">
+        <is>
+          <t>-39.24709573137264,177.02189730004963</t>
+        </is>
+      </c>
+      <c r="L787" t="inlineStr">
+        <is>
+          <t>-39.24768394333776,177.0214895960081</t>
+        </is>
+      </c>
+      <c r="M787" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="788">
+      <c r="A788" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-06 21:53:55+00:00</t>
+        </is>
+      </c>
+      <c r="B788" t="inlineStr">
+        <is>
+          <t>-39.24256041476236,177.02745637330892</t>
+        </is>
+      </c>
+      <c r="C788" t="inlineStr">
+        <is>
+          <t>-39.242915948468344,177.02662101059002</t>
+        </is>
+      </c>
+      <c r="D788" t="inlineStr">
+        <is>
+          <t>-39.24341255629685,177.02599074575227</t>
+        </is>
+      </c>
+      <c r="E788" t="inlineStr">
+        <is>
+          <t>-39.24394388962416,177.02541096959462</t>
+        </is>
+      </c>
+      <c r="F788" t="inlineStr">
+        <is>
+          <t>-39.24444466318774,177.0247867714809</t>
+        </is>
+      </c>
+      <c r="G788" t="inlineStr">
+        <is>
+          <t>-39.24498387480549,177.0242188190147</t>
+        </is>
+      </c>
+      <c r="H788" t="inlineStr">
+        <is>
+          <t>-39.245581807458045,177.02373503734523</t>
+        </is>
+      </c>
+      <c r="I788" t="inlineStr">
+        <is>
+          <t>-39.24608630288202,177.02311638866905</t>
+        </is>
+      </c>
+      <c r="J788" t="inlineStr">
+        <is>
+          <t>-39.246568988751235,177.0224673682945</t>
+        </is>
+      </c>
+      <c r="K788" t="inlineStr">
+        <is>
+          <t>-39.247093873661726,177.02189388745475</t>
+        </is>
+      </c>
+      <c r="L788" t="inlineStr">
+        <is>
+          <t>-39.24766079219955,177.0214322525846</t>
+        </is>
+      </c>
+      <c r="M788" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="789">
+      <c r="A789" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-13 22:00:07+00:00</t>
+        </is>
+      </c>
+      <c r="B789" t="inlineStr">
+        <is>
+          <t>-39.24258698569589,177.02749500209322</t>
+        </is>
+      </c>
+      <c r="C789" t="inlineStr">
+        <is>
+          <t>-39.24294164242975,177.02665836411973</t>
+        </is>
+      </c>
+      <c r="D789" t="inlineStr">
+        <is>
+          <t>-39.24344139011937,177.02603266390918</t>
+        </is>
+      </c>
+      <c r="E789" t="inlineStr">
+        <is>
+          <t>-39.24397846652006,177.0254612369575</t>
+        </is>
+      </c>
+      <c r="F789" t="inlineStr">
+        <is>
+          <t>-39.244458951073774,177.02480754295397</t>
+        </is>
+      </c>
+      <c r="G789" t="inlineStr">
+        <is>
+          <t>-39.24501139384626,177.02425868056028</t>
+        </is>
+      </c>
+      <c r="H789" t="inlineStr">
+        <is>
+          <t>-39.24560431916128,177.023767160085</t>
+        </is>
+      </c>
+      <c r="I789" t="inlineStr">
+        <is>
+          <t>-39.24608555818443,177.02311533803982</t>
+        </is>
+      </c>
+      <c r="J789" t="inlineStr">
+        <is>
+          <t>-39.24660406475887,177.0225168539342</t>
+        </is>
+      </c>
+      <c r="K789" t="inlineStr">
+        <is>
+          <t>-39.24711466969717,177.02193208956874</t>
+        </is>
+      </c>
+      <c r="L789" t="inlineStr">
+        <is>
+          <t>-39.24767018533841,177.02145551858666</t>
+        </is>
+      </c>
+      <c r="M789" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0288/nzd0288.xlsx
+++ b/data/nzd0288/nzd0288.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M789"/>
+  <dimension ref="A1:M793"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -31743,6 +31743,182 @@
         </is>
       </c>
     </row>
+    <row r="790">
+      <c r="A790" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-07 21:59:37+00:00</t>
+        </is>
+      </c>
+      <c r="B790" t="n">
+        <v>370.8842857142857</v>
+      </c>
+      <c r="C790" t="n">
+        <v>333.13</v>
+      </c>
+      <c r="D790" t="n">
+        <v>328.7644444444445</v>
+      </c>
+      <c r="E790" t="n">
+        <v>336.5</v>
+      </c>
+      <c r="F790" t="n">
+        <v>340.9044444444444</v>
+      </c>
+      <c r="G790" t="n">
+        <v>345.5644444444445</v>
+      </c>
+      <c r="H790" t="n">
+        <v>362.7642857142857</v>
+      </c>
+      <c r="I790" t="n">
+        <v>363.2042857142857</v>
+      </c>
+      <c r="J790" t="n">
+        <v>358.1344444444445</v>
+      </c>
+      <c r="K790" t="n">
+        <v>369.01</v>
+      </c>
+      <c r="L790" t="n">
+        <v>371.8618181818182</v>
+      </c>
+      <c r="M790" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="791">
+      <c r="A791" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-15 21:59:47+00:00</t>
+        </is>
+      </c>
+      <c r="B791" t="n">
+        <v>122.8171428571428</v>
+      </c>
+      <c r="C791" t="n">
+        <v>148.57</v>
+      </c>
+      <c r="D791" t="n">
+        <v>317.5633333333333</v>
+      </c>
+      <c r="E791" t="n">
+        <v>342.13</v>
+      </c>
+      <c r="F791" t="n">
+        <v>343.7233333333333</v>
+      </c>
+      <c r="G791" t="n">
+        <v>348.8033333333333</v>
+      </c>
+      <c r="H791" t="n">
+        <v>358.6071428571428</v>
+      </c>
+      <c r="I791" t="n">
+        <v>358.0071428571428</v>
+      </c>
+      <c r="J791" t="n">
+        <v>355.2133333333333</v>
+      </c>
+      <c r="K791" t="n">
+        <v>361.72</v>
+      </c>
+      <c r="L791" t="n">
+        <v>360.0836363636364</v>
+      </c>
+      <c r="M791" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="792">
+      <c r="A792" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-16 21:53:29+00:00</t>
+        </is>
+      </c>
+      <c r="B792" t="n">
+        <v>101.2814285714286</v>
+      </c>
+      <c r="C792" t="n">
+        <v>131.82</v>
+      </c>
+      <c r="D792" t="n">
+        <v>325.4822222222222</v>
+      </c>
+      <c r="E792" t="n">
+        <v>344.51</v>
+      </c>
+      <c r="F792" t="n">
+        <v>343.5422222222222</v>
+      </c>
+      <c r="G792" t="n">
+        <v>348.0822222222222</v>
+      </c>
+      <c r="H792" t="n">
+        <v>357.9614285714285</v>
+      </c>
+      <c r="I792" t="n">
+        <v>362.1114285714286</v>
+      </c>
+      <c r="J792" t="n">
+        <v>361.5022222222222</v>
+      </c>
+      <c r="K792" t="n">
+        <v>365.72</v>
+      </c>
+      <c r="L792" t="n">
+        <v>368.4672727272728</v>
+      </c>
+      <c r="M792" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="793">
+      <c r="A793" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-24 21:53:33+00:00</t>
+        </is>
+      </c>
+      <c r="B793" t="inlineStr"/>
+      <c r="C793" t="inlineStr"/>
+      <c r="D793" t="n">
+        <v>326.5844444444444</v>
+      </c>
+      <c r="E793" t="n">
+        <v>344.69</v>
+      </c>
+      <c r="F793" t="n">
+        <v>341.0244444444444</v>
+      </c>
+      <c r="G793" t="n">
+        <v>339.0244444444444</v>
+      </c>
+      <c r="H793" t="n">
+        <v>361.1085714285715</v>
+      </c>
+      <c r="I793" t="n">
+        <v>359.1485714285715</v>
+      </c>
+      <c r="J793" t="n">
+        <v>351.5844444444444</v>
+      </c>
+      <c r="K793" t="n">
+        <v>359.55</v>
+      </c>
+      <c r="L793" t="n">
+        <v>398.4963636363637</v>
+      </c>
+      <c r="M793" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -31754,7 +31930,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B802"/>
+  <dimension ref="A1:B806"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -39782,6 +39958,46 @@
       </c>
       <c r="B802" t="n">
         <v>-0.14</v>
+      </c>
+    </row>
+    <row r="803">
+      <c r="A803" t="inlineStr">
+        <is>
+          <t>2025-05-07 22:00:00+00:00</t>
+        </is>
+      </c>
+      <c r="B803" t="n">
+        <v>-0.43</v>
+      </c>
+    </row>
+    <row r="804">
+      <c r="A804" t="inlineStr">
+        <is>
+          <t>2025-05-15 22:00:00+00:00</t>
+        </is>
+      </c>
+      <c r="B804" t="n">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="805">
+      <c r="A805" t="inlineStr">
+        <is>
+          <t>2025-05-16 21:50:00+00:00</t>
+        </is>
+      </c>
+      <c r="B805" t="n">
+        <v>0.37</v>
+      </c>
+    </row>
+    <row r="806">
+      <c r="A806" t="inlineStr">
+        <is>
+          <t>2025-05-24 21:50:00+00:00</t>
+        </is>
+      </c>
+      <c r="B806" t="n">
+        <v>-0.79</v>
       </c>
     </row>
   </sheetData>
@@ -39955,28 +40171,28 @@
         <v>0.037</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.07533316455511765</v>
+        <v>-0.2404842241423232</v>
       </c>
       <c r="J2" t="n">
-        <v>788</v>
+        <v>792</v>
       </c>
       <c r="K2" t="n">
-        <v>508</v>
+        <v>511</v>
       </c>
       <c r="L2" t="n">
-        <v>0.0003704466037903753</v>
+        <v>0.003040951063690067</v>
       </c>
       <c r="M2" t="n">
-        <v>11.60376347171614</v>
+        <v>12.92653977890718</v>
       </c>
       <c r="N2" t="n">
-        <v>899.3454080900549</v>
+        <v>1119.848718330369</v>
       </c>
       <c r="O2" t="n">
-        <v>29.98908815035987</v>
+        <v>33.4641407827897</v>
       </c>
       <c r="P2" t="n">
-        <v>354.8902226936729</v>
+        <v>356.4621255171131</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -40033,28 +40249,28 @@
         <v>0.0564</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.1812707589255692</v>
+        <v>-0.3328662618498028</v>
       </c>
       <c r="J3" t="n">
-        <v>788</v>
+        <v>792</v>
       </c>
       <c r="K3" t="n">
-        <v>454</v>
+        <v>457</v>
       </c>
       <c r="L3" t="n">
-        <v>0.0330570970242452</v>
+        <v>0.02941911261091312</v>
       </c>
       <c r="M3" t="n">
-        <v>5.924900655632054</v>
+        <v>6.87636090407146</v>
       </c>
       <c r="N3" t="n">
-        <v>56.180508898327</v>
+        <v>215.0027974979171</v>
       </c>
       <c r="O3" t="n">
-        <v>7.495365828185239</v>
+        <v>14.66297369219208</v>
       </c>
       <c r="P3" t="n">
-        <v>336.6276575438098</v>
+        <v>338.0804167143641</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -40111,28 +40327,28 @@
         <v>0.0515</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.6152483117802723</v>
+        <v>-0.6007944419109594</v>
       </c>
       <c r="J4" t="n">
-        <v>788</v>
+        <v>792</v>
       </c>
       <c r="K4" t="n">
-        <v>601</v>
+        <v>605</v>
       </c>
       <c r="L4" t="n">
-        <v>0.01050552038299679</v>
+        <v>0.01014858527122375</v>
       </c>
       <c r="M4" t="n">
-        <v>23.23434069031032</v>
+        <v>23.10002075064064</v>
       </c>
       <c r="N4" t="n">
-        <v>2067.728372964776</v>
+        <v>2055.098816421998</v>
       </c>
       <c r="O4" t="n">
-        <v>45.47228136969571</v>
+        <v>45.33319772994177</v>
       </c>
       <c r="P4" t="n">
-        <v>328.5131518195838</v>
+        <v>328.374308853727</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -40189,28 +40405,28 @@
         <v>0.0511</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.1811000816447187</v>
+        <v>-0.1644109926409333</v>
       </c>
       <c r="J5" t="n">
-        <v>788</v>
+        <v>792</v>
       </c>
       <c r="K5" t="n">
-        <v>548</v>
+        <v>552</v>
       </c>
       <c r="L5" t="n">
-        <v>0.002874016161652837</v>
+        <v>0.002398846267925303</v>
       </c>
       <c r="M5" t="n">
-        <v>10.51489350587358</v>
+        <v>10.48622457487351</v>
       </c>
       <c r="N5" t="n">
-        <v>674.6552784600574</v>
+        <v>671.0214898117397</v>
       </c>
       <c r="O5" t="n">
-        <v>25.97412709717224</v>
+        <v>25.90408249314651</v>
       </c>
       <c r="P5" t="n">
-        <v>333.7491961361237</v>
+        <v>333.5907502809881</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -40267,28 +40483,28 @@
         <v>0.0461</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.09842682626295965</v>
+        <v>-0.09247560696156318</v>
       </c>
       <c r="J6" t="n">
-        <v>788</v>
+        <v>792</v>
       </c>
       <c r="K6" t="n">
-        <v>633</v>
+        <v>637</v>
       </c>
       <c r="L6" t="n">
-        <v>0.005529738778971671</v>
+        <v>0.004935397414222886</v>
       </c>
       <c r="M6" t="n">
-        <v>7.685504757633734</v>
+        <v>7.666020982660613</v>
       </c>
       <c r="N6" t="n">
-        <v>99.97500621934954</v>
+        <v>99.52474323952805</v>
       </c>
       <c r="O6" t="n">
-        <v>9.998750232871583</v>
+        <v>9.976208861061803</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6398073620419</v>
+        <v>339.5818041822117</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -40345,28 +40561,28 @@
         <v>0.0497</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.0757044986692972</v>
+        <v>-0.07279898358344428</v>
       </c>
       <c r="J7" t="n">
-        <v>788</v>
+        <v>792</v>
       </c>
       <c r="K7" t="n">
-        <v>666</v>
+        <v>670</v>
       </c>
       <c r="L7" t="n">
-        <v>0.003591590595772298</v>
+        <v>0.003356833061997633</v>
       </c>
       <c r="M7" t="n">
-        <v>7.263442502064891</v>
+        <v>7.246179583613027</v>
       </c>
       <c r="N7" t="n">
-        <v>90.39641878042112</v>
+        <v>89.9859584835684</v>
       </c>
       <c r="O7" t="n">
-        <v>9.507703128538518</v>
+        <v>9.486092898742264</v>
       </c>
       <c r="P7" t="n">
-        <v>344.6899458222507</v>
+        <v>344.6616016423849</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -40423,28 +40639,28 @@
         <v>0.036</v>
       </c>
       <c r="I8" t="n">
-        <v>-0.1167705358568135</v>
+        <v>-0.1053959400829545</v>
       </c>
       <c r="J8" t="n">
-        <v>788</v>
+        <v>792</v>
       </c>
       <c r="K8" t="n">
-        <v>607</v>
+        <v>611</v>
       </c>
       <c r="L8" t="n">
-        <v>0.007065642069330247</v>
+        <v>0.005802472916121904</v>
       </c>
       <c r="M8" t="n">
-        <v>7.675962888371479</v>
+        <v>7.681715117049341</v>
       </c>
       <c r="N8" t="n">
-        <v>107.1870687494121</v>
+        <v>107.0921616962916</v>
       </c>
       <c r="O8" t="n">
-        <v>10.35311879335942</v>
+        <v>10.34853427767873</v>
       </c>
       <c r="P8" t="n">
-        <v>353.596253635686</v>
+        <v>353.4823853500798</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -40501,28 +40717,28 @@
         <v>0.0355</v>
       </c>
       <c r="I9" t="n">
-        <v>-0.1215557544799824</v>
+        <v>-0.1166073757795033</v>
       </c>
       <c r="J9" t="n">
-        <v>788</v>
+        <v>792</v>
       </c>
       <c r="K9" t="n">
-        <v>625</v>
+        <v>629</v>
       </c>
       <c r="L9" t="n">
-        <v>0.01250880454138992</v>
+        <v>0.01163935924793458</v>
       </c>
       <c r="M9" t="n">
-        <v>6.225871594473531</v>
+        <v>6.211916601118905</v>
       </c>
       <c r="N9" t="n">
-        <v>66.22817372260714</v>
+        <v>65.94815028306515</v>
       </c>
       <c r="O9" t="n">
-        <v>8.138069410038669</v>
+        <v>8.120846648168229</v>
       </c>
       <c r="P9" t="n">
-        <v>359.49920703393</v>
+        <v>359.4505431068328</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -40579,28 +40795,28 @@
         <v>0.0486</v>
       </c>
       <c r="I10" t="n">
-        <v>-0.1055166669666834</v>
+        <v>-0.1062202435669369</v>
       </c>
       <c r="J10" t="n">
-        <v>788</v>
+        <v>792</v>
       </c>
       <c r="K10" t="n">
-        <v>657</v>
+        <v>661</v>
       </c>
       <c r="L10" t="n">
-        <v>0.01214780603985932</v>
+        <v>0.01243788647374788</v>
       </c>
       <c r="M10" t="n">
-        <v>5.424172414240982</v>
+        <v>5.410818147804669</v>
       </c>
       <c r="N10" t="n">
-        <v>51.12924524188757</v>
+        <v>50.9029383320668</v>
       </c>
       <c r="O10" t="n">
-        <v>7.150471679678732</v>
+        <v>7.134629516104308</v>
       </c>
       <c r="P10" t="n">
-        <v>359.9433889779609</v>
+        <v>359.9502848914495</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -40657,28 +40873,28 @@
         <v>0.0517</v>
       </c>
       <c r="I11" t="n">
-        <v>-0.06629730451108244</v>
+        <v>-0.06674430562964755</v>
       </c>
       <c r="J11" t="n">
-        <v>788</v>
+        <v>792</v>
       </c>
       <c r="K11" t="n">
-        <v>661</v>
+        <v>665</v>
       </c>
       <c r="L11" t="n">
-        <v>0.004539902578577504</v>
+        <v>0.004650264817226635</v>
       </c>
       <c r="M11" t="n">
-        <v>5.66061512480815</v>
+        <v>5.646669717194943</v>
       </c>
       <c r="N11" t="n">
-        <v>54.30320302009058</v>
+        <v>54.05721346583073</v>
       </c>
       <c r="O11" t="n">
-        <v>7.369070702611733</v>
+        <v>7.352361081029055</v>
       </c>
       <c r="P11" t="n">
-        <v>366.0982759650396</v>
+        <v>366.1026803149401</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -40735,28 +40951,28 @@
         <v>0.0577</v>
       </c>
       <c r="I12" t="n">
-        <v>0.007580385835630716</v>
+        <v>0.02266696457188517</v>
       </c>
       <c r="J12" t="n">
-        <v>788</v>
+        <v>792</v>
       </c>
       <c r="K12" t="n">
-        <v>598</v>
+        <v>602</v>
       </c>
       <c r="L12" t="n">
-        <v>4.546940442695657e-05</v>
+        <v>0.0003991254359149154</v>
       </c>
       <c r="M12" t="n">
-        <v>6.678607711304411</v>
+        <v>6.727340459906991</v>
       </c>
       <c r="N12" t="n">
-        <v>72.45946093106542</v>
+        <v>74.30270961063442</v>
       </c>
       <c r="O12" t="n">
-        <v>8.512312313999377</v>
+        <v>8.619901949015105</v>
       </c>
       <c r="P12" t="n">
-        <v>362.4440570449201</v>
+        <v>362.2991936180123</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
@@ -40794,7 +41010,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M789"/>
+  <dimension ref="A1:M793"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -85225,6 +85441,266 @@
         </is>
       </c>
     </row>
+    <row r="790">
+      <c r="A790" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-07 21:59:37+00:00</t>
+        </is>
+      </c>
+      <c r="B790" t="inlineStr">
+        <is>
+          <t>-39.24261234729781,177.0275318727996</t>
+        </is>
+      </c>
+      <c r="C790" t="inlineStr">
+        <is>
+          <t>-39.2428943083001,177.02658955044566</t>
+        </is>
+      </c>
+      <c r="D790" t="inlineStr">
+        <is>
+          <t>-39.24337531010026,177.02593659790566</t>
+        </is>
+      </c>
+      <c r="E790" t="inlineStr">
+        <is>
+          <t>-39.243928449243775,177.0253885226329</t>
+        </is>
+      </c>
+      <c r="F790" t="inlineStr">
+        <is>
+          <t>-39.24446172651337,177.02481157784007</t>
+        </is>
+      </c>
+      <c r="G790" t="inlineStr">
+        <is>
+          <t>-39.244996432941775,177.02423700956663</t>
+        </is>
+      </c>
+      <c r="H790" t="inlineStr">
+        <is>
+          <t>-39.245604947354686,177.0237680564767</t>
+        </is>
+      </c>
+      <c r="I790" t="inlineStr">
+        <is>
+          <t>-39.24610782983287,177.02314675919416</t>
+        </is>
+      </c>
+      <c r="J790" t="inlineStr">
+        <is>
+          <t>-39.24657694281726,177.02247858997615</t>
+        </is>
+      </c>
+      <c r="K790" t="inlineStr">
+        <is>
+          <t>-39.2471284993111,177.0219574944607</t>
+        </is>
+      </c>
+      <c r="L790" t="inlineStr">
+        <is>
+          <t>-39.2477161558609,177.02156938390553</t>
+        </is>
+      </c>
+      <c r="M790" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="791">
+      <c r="A791" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-15 21:59:47+00:00</t>
+        </is>
+      </c>
+      <c r="B791" t="inlineStr">
+        <is>
+          <t>-39.24113349181656,177.02538198827418</t>
+        </is>
+      </c>
+      <c r="C791" t="inlineStr">
+        <is>
+          <t>-39.24179404512545,177.02499004845353</t>
+        </is>
+      </c>
+      <c r="D791" t="inlineStr">
+        <is>
+          <t>-39.243308534480896,177.02583952096458</t>
+        </is>
+      </c>
+      <c r="E791" t="inlineStr">
+        <is>
+          <t>-39.243962012689884,177.02543731662007</t>
+        </is>
+      </c>
+      <c r="F791" t="inlineStr">
+        <is>
+          <t>-39.24447853149867,177.02483600864878</t>
+        </is>
+      </c>
+      <c r="G791" t="inlineStr">
+        <is>
+          <t>-39.245015781226854,177.02426503572033</t>
+        </is>
+      </c>
+      <c r="H791" t="inlineStr">
+        <is>
+          <t>-39.24557990566613,177.0237323236132</t>
+        </is>
+      </c>
+      <c r="I791" t="inlineStr">
+        <is>
+          <t>-39.246076327397326,177.02310231512553</t>
+        </is>
+      </c>
+      <c r="J791" t="inlineStr">
+        <is>
+          <t>-39.246559236431516,177.02245360962308</t>
+        </is>
+      </c>
+      <c r="K791" t="inlineStr">
+        <is>
+          <t>-39.24709088068278,177.02188838938557</t>
+        </is>
+      </c>
+      <c r="L791" t="inlineStr">
+        <is>
+          <t>-39.24766732065774,177.02144842301556</t>
+        </is>
+      </c>
+      <c r="M791" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="792">
+      <c r="A792" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-16 21:53:29+00:00</t>
+        </is>
+      </c>
+      <c r="B792" t="inlineStr">
+        <is>
+          <t>-39.241005104264794,177.02519535232022</t>
+        </is>
+      </c>
+      <c r="C792" t="inlineStr">
+        <is>
+          <t>-39.24169418798088,177.0248448858819</t>
+        </is>
+      </c>
+      <c r="D792" t="inlineStr">
+        <is>
+          <t>-39.24335574308466,177.02590815177183</t>
+        </is>
+      </c>
+      <c r="E792" t="inlineStr">
+        <is>
+          <t>-39.24397620113798,177.02545794357707</t>
+        </is>
+      </c>
+      <c r="F792" t="inlineStr">
+        <is>
+          <t>-39.244477451793436,177.02483443899064</t>
+        </is>
+      </c>
+      <c r="G792" t="inlineStr">
+        <is>
+          <t>-39.24501147349612,177.02425879593383</t>
+        </is>
+      </c>
+      <c r="H792" t="inlineStr">
+        <is>
+          <t>-39.24557601602818,177.02372677335626</t>
+        </is>
+      </c>
+      <c r="I792" t="inlineStr">
+        <is>
+          <t>-39.24610120549055,177.0231374134755</t>
+        </is>
+      </c>
+      <c r="J792" t="inlineStr">
+        <is>
+          <t>-39.24659735667631,177.02250739008687</t>
+        </is>
+      </c>
+      <c r="K792" t="inlineStr">
+        <is>
+          <t>-39.24711152191104,177.02192630711332</t>
+        </is>
+      </c>
+      <c r="L792" t="inlineStr">
+        <is>
+          <t>-39.24770208126464,177.0215345222062</t>
+        </is>
+      </c>
+      <c r="M792" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="793">
+      <c r="A793" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-24 21:53:33+00:00</t>
+        </is>
+      </c>
+      <c r="B793" t="inlineStr"/>
+      <c r="C793" t="inlineStr"/>
+      <c r="D793" t="inlineStr">
+        <is>
+          <t>-39.24336231399938,177.0259177044325</t>
+        </is>
+      </c>
+      <c r="E793" t="inlineStr">
+        <is>
+          <t>-39.24397727421372,177.02545950359934</t>
+        </is>
+      </c>
+      <c r="F793" t="inlineStr">
+        <is>
+          <t>-39.24446244190113,177.0248126178585</t>
+        </is>
+      </c>
+      <c r="G793" t="inlineStr">
+        <is>
+          <t>-39.244957364648904,177.02418041889615</t>
+        </is>
+      </c>
+      <c r="H793" t="inlineStr">
+        <is>
+          <t>-39.24559497370771,177.02375382472493</t>
+        </is>
+      </c>
+      <c r="I793" t="inlineStr">
+        <is>
+          <t>-39.24608324615818,177.0231120762026</t>
+        </is>
+      </c>
+      <c r="J793" t="inlineStr">
+        <is>
+          <t>-39.24653723982517,177.02242257661155</t>
+        </is>
+      </c>
+      <c r="K793" t="inlineStr">
+        <is>
+          <t>-39.24707968281075,177.02186781902734</t>
+        </is>
+      </c>
+      <c r="L793" t="inlineStr">
+        <is>
+          <t>-39.24782658865893,177.0218429189331</t>
+        </is>
+      </c>
+      <c r="M793" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0288/nzd0288.xlsx
+++ b/data/nzd0288/nzd0288.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Intersects" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Tides" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transects" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Intersect points" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Intersects" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Tides" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Transects" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Intersect points" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M793"/>
+  <dimension ref="A1:M795"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -31919,6 +31919,82 @@
         </is>
       </c>
     </row>
+    <row r="794">
+      <c r="A794" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-01 21:53:32+00:00</t>
+        </is>
+      </c>
+      <c r="B794" t="inlineStr"/>
+      <c r="C794" t="inlineStr"/>
+      <c r="D794" t="n">
+        <v>158.69</v>
+      </c>
+      <c r="E794" t="inlineStr"/>
+      <c r="F794" t="n">
+        <v>326.5</v>
+      </c>
+      <c r="G794" t="n">
+        <v>334.59</v>
+      </c>
+      <c r="H794" t="n">
+        <v>339.2085714285714</v>
+      </c>
+      <c r="I794" t="n">
+        <v>347.7685714285714</v>
+      </c>
+      <c r="J794" t="n">
+        <v>349.69</v>
+      </c>
+      <c r="K794" t="n">
+        <v>354.69</v>
+      </c>
+      <c r="L794" t="n">
+        <v>355.5381818181818</v>
+      </c>
+      <c r="M794" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="795">
+      <c r="A795" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-09 21:53:33+00:00</t>
+        </is>
+      </c>
+      <c r="B795" t="inlineStr"/>
+      <c r="C795" t="inlineStr"/>
+      <c r="D795" t="inlineStr"/>
+      <c r="E795" t="inlineStr"/>
+      <c r="F795" t="n">
+        <v>327.8866666666667</v>
+      </c>
+      <c r="G795" t="n">
+        <v>331.7566666666667</v>
+      </c>
+      <c r="H795" t="n">
+        <v>338.2385714285714</v>
+      </c>
+      <c r="I795" t="n">
+        <v>336.0185714285714</v>
+      </c>
+      <c r="J795" t="n">
+        <v>337.7566666666667</v>
+      </c>
+      <c r="K795" t="n">
+        <v>349.44</v>
+      </c>
+      <c r="L795" t="n">
+        <v>347.4172727272727</v>
+      </c>
+      <c r="M795" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -31930,7 +32006,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B806"/>
+  <dimension ref="A1:B808"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -39998,6 +40074,26 @@
       </c>
       <c r="B806" t="n">
         <v>-0.79</v>
+      </c>
+    </row>
+    <row r="807">
+      <c r="A807" t="inlineStr">
+        <is>
+          <t>2025-06-01 21:50:00+00:00</t>
+        </is>
+      </c>
+      <c r="B807" t="n">
+        <v>0.54</v>
+      </c>
+    </row>
+    <row r="808">
+      <c r="A808" t="inlineStr">
+        <is>
+          <t>2025-06-09 21:50:00+00:00</t>
+        </is>
+      </c>
+      <c r="B808" t="n">
+        <v>-0.51</v>
       </c>
     </row>
   </sheetData>
@@ -40174,7 +40270,7 @@
         <v>-0.2404842241423232</v>
       </c>
       <c r="J2" t="n">
-        <v>792</v>
+        <v>794</v>
       </c>
       <c r="K2" t="n">
         <v>511</v>
@@ -40252,7 +40348,7 @@
         <v>-0.3328662618498028</v>
       </c>
       <c r="J3" t="n">
-        <v>792</v>
+        <v>794</v>
       </c>
       <c r="K3" t="n">
         <v>457</v>
@@ -40327,28 +40423,28 @@
         <v>0.0515</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.6007944419109594</v>
+        <v>-0.6474511743937399</v>
       </c>
       <c r="J4" t="n">
-        <v>792</v>
+        <v>794</v>
       </c>
       <c r="K4" t="n">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="L4" t="n">
-        <v>0.01014858527122375</v>
+        <v>0.01158683322270249</v>
       </c>
       <c r="M4" t="n">
-        <v>23.10002075064064</v>
+        <v>23.50856431727963</v>
       </c>
       <c r="N4" t="n">
-        <v>2055.098816421998</v>
+        <v>2090.743052539468</v>
       </c>
       <c r="O4" t="n">
-        <v>45.33319772994177</v>
+        <v>45.72464382080486</v>
       </c>
       <c r="P4" t="n">
-        <v>328.374308853727</v>
+        <v>328.8235812970387</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -40408,7 +40504,7 @@
         <v>-0.1644109926409333</v>
       </c>
       <c r="J5" t="n">
-        <v>792</v>
+        <v>794</v>
       </c>
       <c r="K5" t="n">
         <v>552</v>
@@ -40483,28 +40579,28 @@
         <v>0.0461</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.09247560696156318</v>
+        <v>-0.0981823528507982</v>
       </c>
       <c r="J6" t="n">
-        <v>792</v>
+        <v>794</v>
       </c>
       <c r="K6" t="n">
-        <v>637</v>
+        <v>639</v>
       </c>
       <c r="L6" t="n">
-        <v>0.004935397414222886</v>
+        <v>0.005576023641639893</v>
       </c>
       <c r="M6" t="n">
-        <v>7.666020982660613</v>
+        <v>7.676699201478555</v>
       </c>
       <c r="N6" t="n">
-        <v>99.52474323952805</v>
+        <v>99.52494930323603</v>
       </c>
       <c r="O6" t="n">
-        <v>9.976208861061803</v>
+        <v>9.976219188812765</v>
       </c>
       <c r="P6" t="n">
-        <v>339.5818041822117</v>
+        <v>339.6375877783919</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -40561,28 +40657,28 @@
         <v>0.0497</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.07279898358344428</v>
+        <v>-0.07809832882738237</v>
       </c>
       <c r="J7" t="n">
-        <v>792</v>
+        <v>794</v>
       </c>
       <c r="K7" t="n">
-        <v>670</v>
+        <v>672</v>
       </c>
       <c r="L7" t="n">
-        <v>0.003356833061997633</v>
+        <v>0.003872155000068211</v>
       </c>
       <c r="M7" t="n">
-        <v>7.246179583613027</v>
+        <v>7.254228932280564</v>
       </c>
       <c r="N7" t="n">
-        <v>89.9859584835684</v>
+        <v>89.99647816148622</v>
       </c>
       <c r="O7" t="n">
-        <v>9.486092898742264</v>
+        <v>9.48664736150165</v>
       </c>
       <c r="P7" t="n">
-        <v>344.6616016423849</v>
+        <v>344.7134925370557</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -40639,28 +40735,28 @@
         <v>0.036</v>
       </c>
       <c r="I8" t="n">
-        <v>-0.1053959400829545</v>
+        <v>-0.1125584688676328</v>
       </c>
       <c r="J8" t="n">
-        <v>792</v>
+        <v>794</v>
       </c>
       <c r="K8" t="n">
-        <v>611</v>
+        <v>613</v>
       </c>
       <c r="L8" t="n">
-        <v>0.005802472916121904</v>
+        <v>0.006624208131375098</v>
       </c>
       <c r="M8" t="n">
-        <v>7.681715117049341</v>
+        <v>7.699423564748629</v>
       </c>
       <c r="N8" t="n">
-        <v>107.0921616962916</v>
+        <v>107.2118850921415</v>
       </c>
       <c r="O8" t="n">
-        <v>10.34853427767873</v>
+        <v>10.35431721998807</v>
       </c>
       <c r="P8" t="n">
-        <v>353.4823853500798</v>
+        <v>353.5543066671777</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -40717,28 +40813,28 @@
         <v>0.0355</v>
       </c>
       <c r="I9" t="n">
-        <v>-0.1166073757795033</v>
+        <v>-0.1250507107184278</v>
       </c>
       <c r="J9" t="n">
-        <v>792</v>
+        <v>794</v>
       </c>
       <c r="K9" t="n">
-        <v>629</v>
+        <v>631</v>
       </c>
       <c r="L9" t="n">
-        <v>0.01163935924793458</v>
+        <v>0.01328923648347502</v>
       </c>
       <c r="M9" t="n">
-        <v>6.211916601118905</v>
+        <v>6.240402270580433</v>
       </c>
       <c r="N9" t="n">
-        <v>65.94815028306515</v>
+        <v>66.51297007614298</v>
       </c>
       <c r="O9" t="n">
-        <v>8.120846648168229</v>
+        <v>8.155548422769801</v>
       </c>
       <c r="P9" t="n">
-        <v>359.4505431068328</v>
+        <v>359.5338658829411</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -40795,28 +40891,28 @@
         <v>0.0486</v>
       </c>
       <c r="I10" t="n">
-        <v>-0.1062202435669369</v>
+        <v>-0.1138440054458452</v>
       </c>
       <c r="J10" t="n">
-        <v>792</v>
+        <v>794</v>
       </c>
       <c r="K10" t="n">
-        <v>661</v>
+        <v>663</v>
       </c>
       <c r="L10" t="n">
-        <v>0.01243788647374788</v>
+        <v>0.0141674711684534</v>
       </c>
       <c r="M10" t="n">
-        <v>5.410818147804669</v>
+        <v>5.435713584424666</v>
       </c>
       <c r="N10" t="n">
-        <v>50.9029383320668</v>
+        <v>51.40031068523771</v>
       </c>
       <c r="O10" t="n">
-        <v>7.134629516104308</v>
+        <v>7.169400999054085</v>
       </c>
       <c r="P10" t="n">
-        <v>359.9502848914495</v>
+        <v>360.0250175443596</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -40873,28 +40969,28 @@
         <v>0.0517</v>
       </c>
       <c r="I11" t="n">
-        <v>-0.06674430562964755</v>
+        <v>-0.07367761794077043</v>
       </c>
       <c r="J11" t="n">
-        <v>792</v>
+        <v>794</v>
       </c>
       <c r="K11" t="n">
-        <v>665</v>
+        <v>667</v>
       </c>
       <c r="L11" t="n">
-        <v>0.004650264817226635</v>
+        <v>0.005645859140183673</v>
       </c>
       <c r="M11" t="n">
-        <v>5.646669717194943</v>
+        <v>5.664533507682124</v>
       </c>
       <c r="N11" t="n">
-        <v>54.05721346583073</v>
+        <v>54.36640126229966</v>
       </c>
       <c r="O11" t="n">
-        <v>7.352361081029055</v>
+        <v>7.373357529802801</v>
       </c>
       <c r="P11" t="n">
-        <v>366.1026803149401</v>
+        <v>366.1707265515293</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -40951,28 +41047,28 @@
         <v>0.0577</v>
       </c>
       <c r="I12" t="n">
-        <v>0.02266696457188517</v>
+        <v>0.01558981153095394</v>
       </c>
       <c r="J12" t="n">
-        <v>792</v>
+        <v>794</v>
       </c>
       <c r="K12" t="n">
-        <v>602</v>
+        <v>604</v>
       </c>
       <c r="L12" t="n">
-        <v>0.0003991254359149154</v>
+        <v>0.0001888976480305393</v>
       </c>
       <c r="M12" t="n">
-        <v>6.727340459906991</v>
+        <v>6.740245393040166</v>
       </c>
       <c r="N12" t="n">
-        <v>74.30270961063442</v>
+        <v>74.53777669872063</v>
       </c>
       <c r="O12" t="n">
-        <v>8.619901949015105</v>
+        <v>8.633526318875772</v>
       </c>
       <c r="P12" t="n">
-        <v>362.2991936180123</v>
+        <v>362.3673120177294</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
@@ -41010,7 +41106,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M793"/>
+  <dimension ref="A1:M795"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43596,7 +43692,7 @@
       </c>
       <c r="L41" t="inlineStr">
         <is>
-          <t>-39.24768957469112,177.0215035444139</t>
+          <t>-39.247689574691115,177.0215035444139</t>
         </is>
       </c>
       <c r="M41" t="inlineStr">
@@ -47918,7 +48014,7 @@
       </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t>-39.246086415452574,177.02311654748513</t>
+          <t>-39.24608641545258,177.02311654748513</t>
         </is>
       </c>
       <c r="J116" t="inlineStr">
@@ -52647,7 +52743,7 @@
       </c>
       <c r="D202" t="inlineStr">
         <is>
-          <t>-39.243496302176304,177.0261124943553</t>
+          <t>-39.24349630217631,177.0261124943553</t>
         </is>
       </c>
       <c r="E202" t="inlineStr">
@@ -55904,7 +56000,7 @@
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>-39.242537923137135,177.02742367505616</t>
+          <t>-39.24253792313714,177.02742367505616</t>
         </is>
       </c>
       <c r="C267" t="inlineStr">
@@ -67731,7 +67827,7 @@
       </c>
       <c r="I487" t="inlineStr">
         <is>
-          <t>-39.24611572708693,177.0231579007591</t>
+          <t>-39.24611572708694,177.0231579007591</t>
         </is>
       </c>
       <c r="J487" t="inlineStr">
@@ -71179,7 +71275,7 @@
       </c>
       <c r="K549" t="inlineStr">
         <is>
-          <t>-39.24707106509085,177.0218519883874</t>
+          <t>-39.24707106509084,177.0218519883874</t>
         </is>
       </c>
       <c r="L549" t="inlineStr"/>
@@ -71752,7 +71848,7 @@
       </c>
       <c r="B559" t="inlineStr">
         <is>
-          <t>-39.24248412544403,177.02734546428746</t>
+          <t>-39.24248412544402,177.02734546428746</t>
         </is>
       </c>
       <c r="C559" t="inlineStr">
@@ -80250,7 +80346,7 @@
       </c>
       <c r="K706" t="inlineStr">
         <is>
-          <t>-39.24711890114685,177.0219398627063</t>
+          <t>-39.247118901146855,177.0219398627063</t>
         </is>
       </c>
       <c r="L706" t="inlineStr">
@@ -85701,6 +85797,112 @@
         </is>
       </c>
     </row>
+    <row r="794">
+      <c r="A794" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-01 21:53:32+00:00</t>
+        </is>
+      </c>
+      <c r="B794" t="inlineStr"/>
+      <c r="C794" t="inlineStr"/>
+      <c r="D794" t="inlineStr">
+        <is>
+          <t>-39.242361398500414,177.02446262931593</t>
+        </is>
+      </c>
+      <c r="E794" t="inlineStr"/>
+      <c r="F794" t="inlineStr">
+        <is>
+          <t>-39.244375853411924,177.0246867372626</t>
+        </is>
+      </c>
+      <c r="G794" t="inlineStr">
+        <is>
+          <t>-39.244930874390526,177.02414204764966</t>
+        </is>
+      </c>
+      <c r="H794" t="inlineStr">
+        <is>
+          <t>-39.24546305289441,177.02356558286402</t>
+        </is>
+      </c>
+      <c r="I794" t="inlineStr">
+        <is>
+          <t>-39.24601426633079,177.02301475871593</t>
+        </is>
+      </c>
+      <c r="J794" t="inlineStr">
+        <is>
+          <t>-39.24652575659615,177.02240637598095</t>
+        </is>
+      </c>
+      <c r="K794" t="inlineStr">
+        <is>
+          <t>-39.24705460369116,177.02182174903172</t>
+        </is>
+      </c>
+      <c r="L794" t="inlineStr">
+        <is>
+          <t>-39.24764847406284,177.02140174164063</t>
+        </is>
+      </c>
+      <c r="M794" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="795">
+      <c r="A795" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-09 21:53:33+00:00</t>
+        </is>
+      </c>
+      <c r="B795" t="inlineStr"/>
+      <c r="C795" t="inlineStr"/>
+      <c r="D795" t="inlineStr"/>
+      <c r="E795" t="inlineStr"/>
+      <c r="F795" t="inlineStr">
+        <is>
+          <t>-39.244384120128665,177.02469875522542</t>
+        </is>
+      </c>
+      <c r="G795" t="inlineStr">
+        <is>
+          <t>-39.2449139487607,177.0241175308322</t>
+        </is>
+      </c>
+      <c r="H795" t="inlineStr">
+        <is>
+          <t>-39.24545720981846,177.02355724522707</t>
+        </is>
+      </c>
+      <c r="I795" t="inlineStr">
+        <is>
+          <t>-39.24594304365318,177.0229142773276</t>
+        </is>
+      </c>
+      <c r="J795" t="inlineStr">
+        <is>
+          <t>-39.24645342229724,177.02230432638194</t>
+        </is>
+      </c>
+      <c r="K795" t="inlineStr">
+        <is>
+          <t>-39.247027512027074,177.02177198209722</t>
+        </is>
+      </c>
+      <c r="L795" t="inlineStr">
+        <is>
+          <t>-39.24761480268632,177.02131834075558</t>
+        </is>
+      </c>
+      <c r="M795" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0288/nzd0288.xlsx
+++ b/data/nzd0288/nzd0288.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M795"/>
+  <dimension ref="A1:M796"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -31966,8 +31966,12 @@
       </c>
       <c r="B795" t="inlineStr"/>
       <c r="C795" t="inlineStr"/>
-      <c r="D795" t="inlineStr"/>
-      <c r="E795" t="inlineStr"/>
+      <c r="D795" t="n">
+        <v>107.5266666666667</v>
+      </c>
+      <c r="E795" t="n">
+        <v>163.26</v>
+      </c>
       <c r="F795" t="n">
         <v>327.8866666666667</v>
       </c>
@@ -31992,6 +31996,45 @@
       <c r="M795" t="inlineStr">
         <is>
           <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="796">
+      <c r="A796" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-17 21:53:44+00:00</t>
+        </is>
+      </c>
+      <c r="B796" t="inlineStr"/>
+      <c r="C796" t="inlineStr"/>
+      <c r="D796" t="n">
+        <v>113.3588888888889</v>
+      </c>
+      <c r="E796" t="n">
+        <v>175.44</v>
+      </c>
+      <c r="F796" t="inlineStr"/>
+      <c r="G796" t="n">
+        <v>336.1488888888889</v>
+      </c>
+      <c r="H796" t="n">
+        <v>345.58</v>
+      </c>
+      <c r="I796" t="n">
+        <v>354.31</v>
+      </c>
+      <c r="J796" t="n">
+        <v>354.2088888888889</v>
+      </c>
+      <c r="K796" t="n">
+        <v>357.95</v>
+      </c>
+      <c r="L796" t="n">
+        <v>353.1390909090909</v>
+      </c>
+      <c r="M796" t="inlineStr">
+        <is>
+          <t>L8</t>
         </is>
       </c>
     </row>
@@ -32006,7 +32049,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B808"/>
+  <dimension ref="A1:B809"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -40094,6 +40137,16 @@
       </c>
       <c r="B808" t="n">
         <v>-0.51</v>
+      </c>
+    </row>
+    <row r="809">
+      <c r="A809" t="inlineStr">
+        <is>
+          <t>2025-06-17 21:50:00+00:00</t>
+        </is>
+      </c>
+      <c r="B809" t="n">
+        <v>0.49</v>
       </c>
     </row>
   </sheetData>
@@ -40270,7 +40323,7 @@
         <v>-0.2404842241423232</v>
       </c>
       <c r="J2" t="n">
-        <v>794</v>
+        <v>795</v>
       </c>
       <c r="K2" t="n">
         <v>511</v>
@@ -40348,7 +40401,7 @@
         <v>-0.3328662618498028</v>
       </c>
       <c r="J3" t="n">
-        <v>794</v>
+        <v>795</v>
       </c>
       <c r="K3" t="n">
         <v>457</v>
@@ -40423,28 +40476,28 @@
         <v>0.0515</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.6474511743937399</v>
+        <v>-0.7686757883459439</v>
       </c>
       <c r="J4" t="n">
-        <v>794</v>
+        <v>795</v>
       </c>
       <c r="K4" t="n">
-        <v>606</v>
+        <v>608</v>
       </c>
       <c r="L4" t="n">
-        <v>0.01158683322270249</v>
+        <v>0.01539599375245904</v>
       </c>
       <c r="M4" t="n">
-        <v>23.50856431727963</v>
+        <v>24.60278932885559</v>
       </c>
       <c r="N4" t="n">
-        <v>2090.743052539468</v>
+        <v>2216.354093475511</v>
       </c>
       <c r="O4" t="n">
-        <v>45.72464382080486</v>
+        <v>47.07817003108246</v>
       </c>
       <c r="P4" t="n">
-        <v>328.8235812970387</v>
+        <v>329.9929010757086</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -40501,28 +40554,28 @@
         <v>0.0511</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.1644109926409333</v>
+        <v>-0.2677369328962024</v>
       </c>
       <c r="J5" t="n">
-        <v>794</v>
+        <v>795</v>
       </c>
       <c r="K5" t="n">
-        <v>552</v>
+        <v>554</v>
       </c>
       <c r="L5" t="n">
-        <v>0.002398846267925303</v>
+        <v>0.005616113916202536</v>
       </c>
       <c r="M5" t="n">
-        <v>10.48622457487351</v>
+        <v>11.31758288790783</v>
       </c>
       <c r="N5" t="n">
-        <v>671.0214898117397</v>
+        <v>760.1704657225324</v>
       </c>
       <c r="O5" t="n">
-        <v>25.90408249314651</v>
+        <v>27.57118905166283</v>
       </c>
       <c r="P5" t="n">
-        <v>333.5907502809881</v>
+        <v>334.575690399708</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -40582,7 +40635,7 @@
         <v>-0.0981823528507982</v>
       </c>
       <c r="J6" t="n">
-        <v>794</v>
+        <v>795</v>
       </c>
       <c r="K6" t="n">
         <v>639</v>
@@ -40657,28 +40710,28 @@
         <v>0.0497</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.07809832882738237</v>
+        <v>-0.07990067837798746</v>
       </c>
       <c r="J7" t="n">
-        <v>794</v>
+        <v>795</v>
       </c>
       <c r="K7" t="n">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="L7" t="n">
-        <v>0.003872155000068211</v>
+        <v>0.004061234225074095</v>
       </c>
       <c r="M7" t="n">
-        <v>7.254228932280564</v>
+        <v>7.253605178354065</v>
       </c>
       <c r="N7" t="n">
-        <v>89.99647816148622</v>
+        <v>89.92614126811385</v>
       </c>
       <c r="O7" t="n">
-        <v>9.48664736150165</v>
+        <v>9.482939484575121</v>
       </c>
       <c r="P7" t="n">
-        <v>344.7134925370557</v>
+        <v>344.7311695495834</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -40735,28 +40788,28 @@
         <v>0.036</v>
       </c>
       <c r="I8" t="n">
-        <v>-0.1125584688676328</v>
+        <v>-0.114062913818721</v>
       </c>
       <c r="J8" t="n">
-        <v>794</v>
+        <v>795</v>
       </c>
       <c r="K8" t="n">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="L8" t="n">
-        <v>0.006624208131375098</v>
+        <v>0.006819401283162163</v>
       </c>
       <c r="M8" t="n">
-        <v>7.699423564748629</v>
+        <v>7.695873595519504</v>
       </c>
       <c r="N8" t="n">
-        <v>107.2118850921415</v>
+        <v>107.0788572585359</v>
       </c>
       <c r="O8" t="n">
-        <v>10.35431721998807</v>
+        <v>10.34789144021795</v>
       </c>
       <c r="P8" t="n">
-        <v>353.5543066671777</v>
+        <v>353.5694391988857</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -40813,28 +40866,28 @@
         <v>0.0355</v>
       </c>
       <c r="I9" t="n">
-        <v>-0.1250507107184278</v>
+        <v>-0.1256275730226459</v>
       </c>
       <c r="J9" t="n">
-        <v>794</v>
+        <v>795</v>
       </c>
       <c r="K9" t="n">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="L9" t="n">
-        <v>0.01328923648347502</v>
+        <v>0.0134496634400938</v>
       </c>
       <c r="M9" t="n">
-        <v>6.240402270580433</v>
+        <v>6.233843867091093</v>
       </c>
       <c r="N9" t="n">
-        <v>66.51297007614298</v>
+        <v>66.41397475330301</v>
       </c>
       <c r="O9" t="n">
-        <v>8.155548422769801</v>
+        <v>8.149476961946883</v>
       </c>
       <c r="P9" t="n">
-        <v>359.5338658829411</v>
+        <v>359.539567144478</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -40891,28 +40944,28 @@
         <v>0.0486</v>
       </c>
       <c r="I10" t="n">
-        <v>-0.1138440054458452</v>
+        <v>-0.1146547241627343</v>
       </c>
       <c r="J10" t="n">
-        <v>794</v>
+        <v>795</v>
       </c>
       <c r="K10" t="n">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="L10" t="n">
-        <v>0.0141674711684534</v>
+        <v>0.01440655348947906</v>
       </c>
       <c r="M10" t="n">
-        <v>5.435713584424666</v>
+        <v>5.431929439042062</v>
       </c>
       <c r="N10" t="n">
-        <v>51.40031068523771</v>
+        <v>51.33527943253505</v>
       </c>
       <c r="O10" t="n">
-        <v>7.169400999054085</v>
+        <v>7.164864229874495</v>
       </c>
       <c r="P10" t="n">
-        <v>360.0250175443596</v>
+        <v>360.0329760052202</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -40969,28 +41022,28 @@
         <v>0.0517</v>
       </c>
       <c r="I11" t="n">
-        <v>-0.07367761794077043</v>
+        <v>-0.0754527527677139</v>
       </c>
       <c r="J11" t="n">
-        <v>794</v>
+        <v>795</v>
       </c>
       <c r="K11" t="n">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="L11" t="n">
-        <v>0.005645859140183673</v>
+        <v>0.005930865523328888</v>
       </c>
       <c r="M11" t="n">
-        <v>5.664533507682124</v>
+        <v>5.665101221806585</v>
       </c>
       <c r="N11" t="n">
-        <v>54.36640126229966</v>
+        <v>54.34446965937951</v>
       </c>
       <c r="O11" t="n">
-        <v>7.373357529802801</v>
+        <v>7.371870160236106</v>
       </c>
       <c r="P11" t="n">
-        <v>366.1707265515293</v>
+        <v>366.1881753651867</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -41047,28 +41100,28 @@
         <v>0.0577</v>
       </c>
       <c r="I12" t="n">
-        <v>0.01558981153095394</v>
+        <v>0.01260907125700292</v>
       </c>
       <c r="J12" t="n">
-        <v>794</v>
+        <v>795</v>
       </c>
       <c r="K12" t="n">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="L12" t="n">
-        <v>0.0001888976480305393</v>
+        <v>0.0001237415521566643</v>
       </c>
       <c r="M12" t="n">
-        <v>6.740245393040166</v>
+        <v>6.74401231592194</v>
       </c>
       <c r="N12" t="n">
-        <v>74.53777669872063</v>
+        <v>74.56712656810565</v>
       </c>
       <c r="O12" t="n">
-        <v>8.633526318875772</v>
+        <v>8.635225912974462</v>
       </c>
       <c r="P12" t="n">
-        <v>362.3673120177294</v>
+        <v>362.3960442940167</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
@@ -41106,7 +41159,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M795"/>
+  <dimension ref="A1:M796"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -85860,8 +85913,16 @@
       </c>
       <c r="B795" t="inlineStr"/>
       <c r="C795" t="inlineStr"/>
-      <c r="D795" t="inlineStr"/>
-      <c r="E795" t="inlineStr"/>
+      <c r="D795" t="inlineStr">
+        <is>
+          <t>-39.24205638032003,177.02401922500775</t>
+        </is>
+      </c>
+      <c r="E795" t="inlineStr">
+        <is>
+          <t>-39.242895661520535,177.02388711179532</t>
+        </is>
+      </c>
       <c r="F795" t="inlineStr">
         <is>
           <t>-39.244384120128665,177.02469875522542</t>
@@ -85900,6 +85961,61 @@
       <c r="M795" t="inlineStr">
         <is>
           <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="796">
+      <c r="A796" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-17 21:53:44+00:00</t>
+        </is>
+      </c>
+      <c r="B796" t="inlineStr"/>
+      <c r="C796" t="inlineStr"/>
+      <c r="D796" t="inlineStr">
+        <is>
+          <t>-39.242091150117375,177.02406976945863</t>
+        </is>
+      </c>
+      <c r="E796" t="inlineStr">
+        <is>
+          <t>-39.24296827453207,177.02399267018816</t>
+        </is>
+      </c>
+      <c r="F796" t="inlineStr"/>
+      <c r="G796" t="inlineStr">
+        <is>
+          <t>-39.244940186803206,177.0241555367115</t>
+        </is>
+      </c>
+      <c r="H796" t="inlineStr">
+        <is>
+          <t>-39.245501433022994,177.0236203485254</t>
+        </is>
+      </c>
+      <c r="I796" t="inlineStr">
+        <is>
+          <t>-39.24605391718683,177.02307069853347</t>
+        </is>
+      </c>
+      <c r="J796" t="inlineStr">
+        <is>
+          <t>-39.246553147965784,177.02244501995722</t>
+        </is>
+      </c>
+      <c r="K796" t="inlineStr">
+        <is>
+          <t>-39.247071426312694,177.02185265194709</t>
+        </is>
+      </c>
+      <c r="L796" t="inlineStr">
+        <is>
+          <t>-39.24763852682194,177.02137710322054</t>
+        </is>
+      </c>
+      <c r="M796" t="inlineStr">
+        <is>
+          <t>L8</t>
         </is>
       </c>
     </row>

--- a/data/nzd0288/nzd0288.xlsx
+++ b/data/nzd0288/nzd0288.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M796"/>
+  <dimension ref="A1:M799"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -31794,12 +31794,8 @@
           <t>2025-05-15 21:59:47+00:00</t>
         </is>
       </c>
-      <c r="B791" t="n">
-        <v>122.8171428571428</v>
-      </c>
-      <c r="C791" t="n">
-        <v>148.57</v>
-      </c>
+      <c r="B791" t="inlineStr"/>
+      <c r="C791" t="inlineStr"/>
       <c r="D791" t="n">
         <v>317.5633333333333</v>
       </c>
@@ -31839,12 +31835,8 @@
           <t>2025-05-16 21:53:29+00:00</t>
         </is>
       </c>
-      <c r="B792" t="n">
-        <v>101.2814285714286</v>
-      </c>
-      <c r="C792" t="n">
-        <v>131.82</v>
-      </c>
+      <c r="B792" t="inlineStr"/>
+      <c r="C792" t="inlineStr"/>
       <c r="D792" t="n">
         <v>325.4822222222222</v>
       </c>
@@ -31927,9 +31919,7 @@
       </c>
       <c r="B794" t="inlineStr"/>
       <c r="C794" t="inlineStr"/>
-      <c r="D794" t="n">
-        <v>158.69</v>
-      </c>
+      <c r="D794" t="inlineStr"/>
       <c r="E794" t="inlineStr"/>
       <c r="F794" t="n">
         <v>326.5</v>
@@ -31966,12 +31956,8 @@
       </c>
       <c r="B795" t="inlineStr"/>
       <c r="C795" t="inlineStr"/>
-      <c r="D795" t="n">
-        <v>107.5266666666667</v>
-      </c>
-      <c r="E795" t="n">
-        <v>163.26</v>
-      </c>
+      <c r="D795" t="inlineStr"/>
+      <c r="E795" t="inlineStr"/>
       <c r="F795" t="n">
         <v>327.8866666666667</v>
       </c>
@@ -32007,12 +31993,8 @@
       </c>
       <c r="B796" t="inlineStr"/>
       <c r="C796" t="inlineStr"/>
-      <c r="D796" t="n">
-        <v>113.3588888888889</v>
-      </c>
-      <c r="E796" t="n">
-        <v>175.44</v>
-      </c>
+      <c r="D796" t="inlineStr"/>
+      <c r="E796" t="inlineStr"/>
       <c r="F796" t="inlineStr"/>
       <c r="G796" t="n">
         <v>336.1488888888889</v>
@@ -32035,6 +32017,131 @@
       <c r="M796" t="inlineStr">
         <is>
           <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="797">
+      <c r="A797" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-03 21:53:50+00:00</t>
+        </is>
+      </c>
+      <c r="B797" t="n">
+        <v>342.5942857142857</v>
+      </c>
+      <c r="C797" t="n">
+        <v>325.59</v>
+      </c>
+      <c r="D797" t="n">
+        <v>331.6033333333333</v>
+      </c>
+      <c r="E797" t="n">
+        <v>332.85</v>
+      </c>
+      <c r="F797" t="n">
+        <v>333.2833333333333</v>
+      </c>
+      <c r="G797" t="n">
+        <v>334.2533333333333</v>
+      </c>
+      <c r="H797" t="n">
+        <v>346.6342857142857</v>
+      </c>
+      <c r="I797" t="n">
+        <v>351.8842857142857</v>
+      </c>
+      <c r="J797" t="n">
+        <v>344.7833333333333</v>
+      </c>
+      <c r="K797" t="n">
+        <v>348.31</v>
+      </c>
+      <c r="L797" t="n">
+        <v>352.920909090909</v>
+      </c>
+      <c r="M797" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="798">
+      <c r="A798" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-18 22:00:04+00:00</t>
+        </is>
+      </c>
+      <c r="B798" t="inlineStr"/>
+      <c r="C798" t="inlineStr"/>
+      <c r="D798" t="inlineStr"/>
+      <c r="E798" t="n">
+        <v>341.11</v>
+      </c>
+      <c r="F798" t="n">
+        <v>338.1233333333333</v>
+      </c>
+      <c r="G798" t="n">
+        <v>343.2433333333333</v>
+      </c>
+      <c r="H798" t="n">
+        <v>337.0385714285715</v>
+      </c>
+      <c r="I798" t="n">
+        <v>357.2885714285715</v>
+      </c>
+      <c r="J798" t="n">
+        <v>354.5833333333333</v>
+      </c>
+      <c r="K798" t="n">
+        <v>353.99</v>
+      </c>
+      <c r="L798" t="n">
+        <v>349.42</v>
+      </c>
+      <c r="M798" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="799">
+      <c r="A799" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-27 21:53:57+00:00</t>
+        </is>
+      </c>
+      <c r="B799" t="inlineStr"/>
+      <c r="C799" t="inlineStr"/>
+      <c r="D799" t="n">
+        <v>307.2977777777777</v>
+      </c>
+      <c r="E799" t="n">
+        <v>333.52</v>
+      </c>
+      <c r="F799" t="n">
+        <v>338.7877777777778</v>
+      </c>
+      <c r="G799" t="n">
+        <v>338.2277777777778</v>
+      </c>
+      <c r="H799" t="n">
+        <v>328.24</v>
+      </c>
+      <c r="I799" t="n">
+        <v>353.35</v>
+      </c>
+      <c r="J799" t="n">
+        <v>353.8277777777778</v>
+      </c>
+      <c r="K799" t="n">
+        <v>358.01</v>
+      </c>
+      <c r="L799" t="n">
+        <v>350.4436363636364</v>
+      </c>
+      <c r="M799" t="inlineStr">
+        <is>
+          <t>L9</t>
         </is>
       </c>
     </row>
@@ -32049,7 +32156,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B809"/>
+  <dimension ref="A1:B812"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -40147,6 +40254,36 @@
       </c>
       <c r="B809" t="n">
         <v>0.49</v>
+      </c>
+    </row>
+    <row r="810">
+      <c r="A810" t="inlineStr">
+        <is>
+          <t>2025-07-03 21:50:00+00:00</t>
+        </is>
+      </c>
+      <c r="B810" t="n">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="811">
+      <c r="A811" t="inlineStr">
+        <is>
+          <t>2025-07-18 22:00:00+00:00</t>
+        </is>
+      </c>
+      <c r="B811" t="n">
+        <v>0.33</v>
+      </c>
+    </row>
+    <row r="812">
+      <c r="A812" t="inlineStr">
+        <is>
+          <t>2025-07-27 21:50:00+00:00</t>
+        </is>
+      </c>
+      <c r="B812" t="n">
+        <v>0.35</v>
       </c>
     </row>
   </sheetData>
@@ -40320,28 +40457,28 @@
         <v>0.037</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.2404842241423232</v>
+        <v>-0.07267624508686325</v>
       </c>
       <c r="J2" t="n">
-        <v>795</v>
+        <v>798</v>
       </c>
       <c r="K2" t="n">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="L2" t="n">
-        <v>0.003040951063690067</v>
+        <v>0.0003471763063278566</v>
       </c>
       <c r="M2" t="n">
-        <v>12.92653977890718</v>
+        <v>11.60799063779069</v>
       </c>
       <c r="N2" t="n">
-        <v>1119.848718330369</v>
+        <v>896.6583451477941</v>
       </c>
       <c r="O2" t="n">
-        <v>33.4641407827897</v>
+        <v>29.94425395877803</v>
       </c>
       <c r="P2" t="n">
-        <v>356.4621255171131</v>
+        <v>354.8652627955285</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -40398,28 +40535,28 @@
         <v>0.0564</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.3328662618498028</v>
+        <v>-0.1833686308865982</v>
       </c>
       <c r="J3" t="n">
-        <v>795</v>
+        <v>798</v>
       </c>
       <c r="K3" t="n">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="L3" t="n">
-        <v>0.02941911261091312</v>
+        <v>0.03403206768722278</v>
       </c>
       <c r="M3" t="n">
-        <v>6.87636090407146</v>
+        <v>5.916049379759028</v>
       </c>
       <c r="N3" t="n">
-        <v>215.0027974979171</v>
+        <v>56.02497069994197</v>
       </c>
       <c r="O3" t="n">
-        <v>14.66297369219208</v>
+        <v>7.484983012668899</v>
       </c>
       <c r="P3" t="n">
-        <v>338.0804167143641</v>
+        <v>336.6479392044616</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -40476,28 +40613,28 @@
         <v>0.0515</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.7686757883459439</v>
+        <v>-0.5967664132666766</v>
       </c>
       <c r="J4" t="n">
-        <v>795</v>
+        <v>798</v>
       </c>
       <c r="K4" t="n">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="L4" t="n">
-        <v>0.01539599375245904</v>
+        <v>0.01007724677236754</v>
       </c>
       <c r="M4" t="n">
-        <v>24.60278932885559</v>
+        <v>23.04752284439964</v>
       </c>
       <c r="N4" t="n">
-        <v>2216.354093475511</v>
+        <v>2048.956880070777</v>
       </c>
       <c r="O4" t="n">
-        <v>47.07817003108246</v>
+        <v>45.26540489237644</v>
       </c>
       <c r="P4" t="n">
-        <v>329.9929010757086</v>
+        <v>328.3354001727371</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -40554,28 +40691,28 @@
         <v>0.0511</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.2677369328962024</v>
+        <v>-0.1580948117547276</v>
       </c>
       <c r="J5" t="n">
-        <v>795</v>
+        <v>798</v>
       </c>
       <c r="K5" t="n">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="L5" t="n">
-        <v>0.005616113916202536</v>
+        <v>0.002241037852599992</v>
       </c>
       <c r="M5" t="n">
-        <v>11.31758288790783</v>
+        <v>10.44832877869882</v>
       </c>
       <c r="N5" t="n">
-        <v>760.1704657225324</v>
+        <v>667.6948895704403</v>
       </c>
       <c r="O5" t="n">
-        <v>27.57118905166283</v>
+        <v>25.83979275401489</v>
       </c>
       <c r="P5" t="n">
-        <v>334.575690399708</v>
+        <v>333.5302376886964</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -40632,28 +40769,28 @@
         <v>0.0461</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.0981823528507982</v>
+        <v>-0.09848476396024852</v>
       </c>
       <c r="J6" t="n">
-        <v>795</v>
+        <v>798</v>
       </c>
       <c r="K6" t="n">
-        <v>639</v>
+        <v>642</v>
       </c>
       <c r="L6" t="n">
-        <v>0.005576023641639893</v>
+        <v>0.005659835353331699</v>
       </c>
       <c r="M6" t="n">
-        <v>7.676699201478555</v>
+        <v>7.65120808981441</v>
       </c>
       <c r="N6" t="n">
-        <v>99.52494930323603</v>
+        <v>99.08866095642067</v>
       </c>
       <c r="O6" t="n">
-        <v>9.976219188812765</v>
+        <v>9.954328754688619</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6375877783919</v>
+        <v>339.6405331890338</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -40710,28 +40847,28 @@
         <v>0.0497</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.07990067837798746</v>
+        <v>-0.08325069353575333</v>
       </c>
       <c r="J7" t="n">
-        <v>795</v>
+        <v>798</v>
       </c>
       <c r="K7" t="n">
-        <v>673</v>
+        <v>676</v>
       </c>
       <c r="L7" t="n">
-        <v>0.004061234225074095</v>
+        <v>0.004439801061218773</v>
       </c>
       <c r="M7" t="n">
-        <v>7.253605178354065</v>
+        <v>7.24209754883713</v>
       </c>
       <c r="N7" t="n">
-        <v>89.92614126811385</v>
+        <v>89.66021615465426</v>
       </c>
       <c r="O7" t="n">
-        <v>9.482939484575121</v>
+        <v>9.468907864936392</v>
       </c>
       <c r="P7" t="n">
-        <v>344.7311695495834</v>
+        <v>344.7641361223033</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -40788,28 +40925,28 @@
         <v>0.036</v>
       </c>
       <c r="I8" t="n">
-        <v>-0.114062913818721</v>
+        <v>-0.1258627310688737</v>
       </c>
       <c r="J8" t="n">
-        <v>795</v>
+        <v>798</v>
       </c>
       <c r="K8" t="n">
-        <v>614</v>
+        <v>617</v>
       </c>
       <c r="L8" t="n">
-        <v>0.006819401283162163</v>
+        <v>0.008280767643301656</v>
       </c>
       <c r="M8" t="n">
-        <v>7.695873595519504</v>
+        <v>7.728064764358223</v>
       </c>
       <c r="N8" t="n">
-        <v>107.0788572585359</v>
+        <v>107.6813510949639</v>
       </c>
       <c r="O8" t="n">
-        <v>10.34789144021795</v>
+        <v>10.37696251775846</v>
       </c>
       <c r="P8" t="n">
-        <v>353.5694391988857</v>
+        <v>353.6887179100927</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -40866,28 +41003,28 @@
         <v>0.0355</v>
       </c>
       <c r="I9" t="n">
-        <v>-0.1256275730226459</v>
+        <v>-0.1274457434884219</v>
       </c>
       <c r="J9" t="n">
-        <v>795</v>
+        <v>798</v>
       </c>
       <c r="K9" t="n">
-        <v>632</v>
+        <v>635</v>
       </c>
       <c r="L9" t="n">
-        <v>0.0134496634400938</v>
+        <v>0.01395272624071053</v>
       </c>
       <c r="M9" t="n">
-        <v>6.233843867091093</v>
+        <v>6.218053245277867</v>
       </c>
       <c r="N9" t="n">
-        <v>66.41397475330301</v>
+        <v>66.14554483754713</v>
       </c>
       <c r="O9" t="n">
-        <v>8.149476961946883</v>
+        <v>8.132991137186067</v>
       </c>
       <c r="P9" t="n">
-        <v>359.539567144478</v>
+        <v>359.557599993214</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -40944,28 +41081,28 @@
         <v>0.0486</v>
       </c>
       <c r="I10" t="n">
-        <v>-0.1146547241627343</v>
+        <v>-0.1196893960620713</v>
       </c>
       <c r="J10" t="n">
-        <v>795</v>
+        <v>798</v>
       </c>
       <c r="K10" t="n">
-        <v>664</v>
+        <v>667</v>
       </c>
       <c r="L10" t="n">
-        <v>0.01440655348947906</v>
+        <v>0.01574497390091456</v>
       </c>
       <c r="M10" t="n">
-        <v>5.431929439042062</v>
+        <v>5.43479723841578</v>
       </c>
       <c r="N10" t="n">
-        <v>51.33527943253505</v>
+        <v>51.35315329853724</v>
       </c>
       <c r="O10" t="n">
-        <v>7.164864229874495</v>
+        <v>7.166111448933601</v>
       </c>
       <c r="P10" t="n">
-        <v>360.0329760052202</v>
+        <v>360.0825515641087</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -41022,28 +41159,28 @@
         <v>0.0517</v>
       </c>
       <c r="I11" t="n">
-        <v>-0.0754527527677139</v>
+        <v>-0.08449019561463939</v>
       </c>
       <c r="J11" t="n">
-        <v>795</v>
+        <v>798</v>
       </c>
       <c r="K11" t="n">
-        <v>668</v>
+        <v>671</v>
       </c>
       <c r="L11" t="n">
-        <v>0.005930865523328888</v>
+        <v>0.00741310500645298</v>
       </c>
       <c r="M11" t="n">
-        <v>5.665101221806585</v>
+        <v>5.685409081577037</v>
       </c>
       <c r="N11" t="n">
-        <v>54.34446965937951</v>
+        <v>54.68639335192672</v>
       </c>
       <c r="O11" t="n">
-        <v>7.371870160236106</v>
+        <v>7.395024905429779</v>
       </c>
       <c r="P11" t="n">
-        <v>366.1881753651867</v>
+        <v>366.2773194506161</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -41100,28 +41237,28 @@
         <v>0.0577</v>
       </c>
       <c r="I12" t="n">
-        <v>0.01260907125700292</v>
+        <v>0.001740510862459314</v>
       </c>
       <c r="J12" t="n">
-        <v>795</v>
+        <v>798</v>
       </c>
       <c r="K12" t="n">
-        <v>605</v>
+        <v>608</v>
       </c>
       <c r="L12" t="n">
-        <v>0.0001237415521566643</v>
+        <v>2.360240720311602e-06</v>
       </c>
       <c r="M12" t="n">
-        <v>6.74401231592194</v>
+        <v>6.764391846868552</v>
       </c>
       <c r="N12" t="n">
-        <v>74.56712656810565</v>
+        <v>74.8860121489673</v>
       </c>
       <c r="O12" t="n">
-        <v>8.635225912974462</v>
+        <v>8.653670443746243</v>
       </c>
       <c r="P12" t="n">
-        <v>362.3960442940167</v>
+        <v>362.5012448514505</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
@@ -41159,7 +41296,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M796"/>
+  <dimension ref="A1:M799"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -85663,16 +85800,8 @@
           <t>2025-05-15 21:59:47+00:00</t>
         </is>
       </c>
-      <c r="B791" t="inlineStr">
-        <is>
-          <t>-39.24113349181656,177.02538198827418</t>
-        </is>
-      </c>
-      <c r="C791" t="inlineStr">
-        <is>
-          <t>-39.24179404512545,177.02499004845353</t>
-        </is>
-      </c>
+      <c r="B791" t="inlineStr"/>
+      <c r="C791" t="inlineStr"/>
       <c r="D791" t="inlineStr">
         <is>
           <t>-39.243308534480896,177.02583952096458</t>
@@ -85730,16 +85859,8 @@
           <t>2025-05-16 21:53:29+00:00</t>
         </is>
       </c>
-      <c r="B792" t="inlineStr">
-        <is>
-          <t>-39.241005104264794,177.02519535232022</t>
-        </is>
-      </c>
-      <c r="C792" t="inlineStr">
-        <is>
-          <t>-39.24169418798088,177.0248448858819</t>
-        </is>
-      </c>
+      <c r="B792" t="inlineStr"/>
+      <c r="C792" t="inlineStr"/>
       <c r="D792" t="inlineStr">
         <is>
           <t>-39.24335574308466,177.02590815177183</t>
@@ -85858,11 +85979,7 @@
       </c>
       <c r="B794" t="inlineStr"/>
       <c r="C794" t="inlineStr"/>
-      <c r="D794" t="inlineStr">
-        <is>
-          <t>-39.242361398500414,177.02446262931593</t>
-        </is>
-      </c>
+      <c r="D794" t="inlineStr"/>
       <c r="E794" t="inlineStr"/>
       <c r="F794" t="inlineStr">
         <is>
@@ -85913,16 +86030,8 @@
       </c>
       <c r="B795" t="inlineStr"/>
       <c r="C795" t="inlineStr"/>
-      <c r="D795" t="inlineStr">
-        <is>
-          <t>-39.24205638032003,177.02401922500775</t>
-        </is>
-      </c>
-      <c r="E795" t="inlineStr">
-        <is>
-          <t>-39.242895661520535,177.02388711179532</t>
-        </is>
-      </c>
+      <c r="D795" t="inlineStr"/>
+      <c r="E795" t="inlineStr"/>
       <c r="F795" t="inlineStr">
         <is>
           <t>-39.244384120128665,177.02469875522542</t>
@@ -85972,16 +86081,8 @@
       </c>
       <c r="B796" t="inlineStr"/>
       <c r="C796" t="inlineStr"/>
-      <c r="D796" t="inlineStr">
-        <is>
-          <t>-39.242091150117375,177.02406976945863</t>
-        </is>
-      </c>
-      <c r="E796" t="inlineStr">
-        <is>
-          <t>-39.24296827453207,177.02399267018816</t>
-        </is>
-      </c>
+      <c r="D796" t="inlineStr"/>
+      <c r="E796" t="inlineStr"/>
       <c r="F796" t="inlineStr"/>
       <c r="G796" t="inlineStr">
         <is>
@@ -86016,6 +86117,187 @@
       <c r="M796" t="inlineStr">
         <is>
           <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="797">
+      <c r="A797" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-03 21:53:50+00:00</t>
+        </is>
+      </c>
+      <c r="B797" t="inlineStr">
+        <is>
+          <t>-39.24244369835908,177.02728669176494</t>
+        </is>
+      </c>
+      <c r="C797" t="inlineStr">
+        <is>
+          <t>-39.24284935871891,177.02652420354067</t>
+        </is>
+      </c>
+      <c r="D797" t="inlineStr">
+        <is>
+          <t>-39.24339223417142,177.02596120180186</t>
+        </is>
+      </c>
+      <c r="E797" t="inlineStr">
+        <is>
+          <t>-39.243906689626066,177.0253568889004</t>
+        </is>
+      </c>
+      <c r="F797" t="inlineStr">
+        <is>
+          <t>-39.2444162927461,177.02474552708338</t>
+        </is>
+      </c>
+      <c r="G797" t="inlineStr">
+        <is>
+          <t>-39.244928863227756,177.0241391344743</t>
+        </is>
+      </c>
+      <c r="H797" t="inlineStr">
+        <is>
+          <t>-39.24550778381276,177.02362941065178</t>
+        </is>
+      </c>
+      <c r="I797" t="inlineStr">
+        <is>
+          <t>-39.24603921372815,177.02304995473708</t>
+        </is>
+      </c>
+      <c r="J797" t="inlineStr">
+        <is>
+          <t>-39.24649601468439,177.02236441589707</t>
+        </is>
+      </c>
+      <c r="K797" t="inlineStr">
+        <is>
+          <t>-39.24702168086584,177.02176127036196</t>
+        </is>
+      </c>
+      <c r="L797" t="inlineStr">
+        <is>
+          <t>-39.247637622184364,177.02137486251573</t>
+        </is>
+      </c>
+      <c r="M797" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="798">
+      <c r="A798" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-18 22:00:04+00:00</t>
+        </is>
+      </c>
+      <c r="B798" t="inlineStr"/>
+      <c r="C798" t="inlineStr"/>
+      <c r="D798" t="inlineStr"/>
+      <c r="E798" t="inlineStr">
+        <is>
+          <t>-39.24395593192517,177.0254284764982</t>
+        </is>
+      </c>
+      <c r="F798" t="inlineStr">
+        <is>
+          <t>-39.24444514673704,177.024787474456</t>
+        </is>
+      </c>
+      <c r="G798" t="inlineStr">
+        <is>
+          <t>-39.24498256721923,177.0242169249671</t>
+        </is>
+      </c>
+      <c r="H798" t="inlineStr">
+        <is>
+          <t>-39.245449981269964,177.02354693062657</t>
+        </is>
+      </c>
+      <c r="I798" t="inlineStr">
+        <is>
+          <t>-39.24607197178143,177.0230961701681</t>
+        </is>
+      </c>
+      <c r="J798" t="inlineStr">
+        <is>
+          <t>-39.246555417670464,177.02244822207808</t>
+        </is>
+      </c>
+      <c r="K798" t="inlineStr">
+        <is>
+          <t>-39.24705099147064,177.0218151134383</t>
+        </is>
+      </c>
+      <c r="L798" t="inlineStr">
+        <is>
+          <t>-39.24762310651435,177.02133890854765</t>
+        </is>
+      </c>
+      <c r="M798" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="799">
+      <c r="A799" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-27 21:53:57+00:00</t>
+        </is>
+      </c>
+      <c r="B799" t="inlineStr"/>
+      <c r="C799" t="inlineStr"/>
+      <c r="D799" t="inlineStr">
+        <is>
+          <t>-39.24324733611213,177.0257505523863</t>
+        </is>
+      </c>
+      <c r="E799" t="inlineStr">
+        <is>
+          <t>-39.24391068385798,177.02536269563888</t>
+        </is>
+      </c>
+      <c r="F799" t="inlineStr">
+        <is>
+          <t>-39.24444910786669,177.02479323307406</t>
+        </is>
+      </c>
+      <c r="G799" t="inlineStr">
+        <is>
+          <t>-39.24495260556319,177.0241735253376</t>
+        </is>
+      </c>
+      <c r="H799" t="inlineStr">
+        <is>
+          <t>-39.24539698048821,177.02347130256655</t>
+        </is>
+      </c>
+      <c r="I799" t="inlineStr">
+        <is>
+          <t>-39.24604809815067,177.02306248897344</t>
+        </is>
+      </c>
+      <c r="J799" t="inlineStr">
+        <is>
+          <t>-39.246550837850826,177.02244176082553</t>
+        </is>
+      </c>
+      <c r="K799" t="inlineStr">
+        <is>
+          <t>-39.247071735931414,177.0218532207125</t>
+        </is>
+      </c>
+      <c r="L799" t="inlineStr">
+        <is>
+          <t>-39.24762735077537,177.02134942118394</t>
+        </is>
+      </c>
+      <c r="M799" t="inlineStr">
+        <is>
+          <t>L9</t>
         </is>
       </c>
     </row>

--- a/data/nzd0288/nzd0288.xlsx
+++ b/data/nzd0288/nzd0288.xlsx
@@ -40558,13 +40558,13 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0.035</v>
+        <v>0.02</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0347</v>
+        <v>0.0197</v>
       </c>
       <c r="H2" t="n">
-        <v>0.037</v>
+        <v>0.0258</v>
       </c>
       <c r="I2" t="n">
         <v>-0.07141509189171981</v>
@@ -40636,13 +40636,13 @@
         <v>0.1002678745087259</v>
       </c>
       <c r="F3" t="n">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0492</v>
+        <v>0.0335</v>
       </c>
       <c r="H3" t="n">
-        <v>0.0564</v>
+        <v>0.0456</v>
       </c>
       <c r="I3" t="n">
         <v>-0.1857758161455203</v>
@@ -40714,13 +40714,13 @@
         <v>0.2005357490155746</v>
       </c>
       <c r="F4" t="n">
-        <v>0.045</v>
+        <v>0.04</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0393</v>
+        <v>0.0337</v>
       </c>
       <c r="H4" t="n">
-        <v>0.0515</v>
+        <v>0.0577</v>
       </c>
       <c r="I4" t="n">
         <v>-0.5859667904295655</v>
@@ -40792,13 +40792,13 @@
         <v>0.3008036235243005</v>
       </c>
       <c r="F5" t="n">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
       <c r="G5" t="n">
-        <v>0.0445</v>
+        <v>0.0348</v>
       </c>
       <c r="H5" t="n">
-        <v>0.0511</v>
+        <v>0.0488</v>
       </c>
       <c r="I5" t="n">
         <v>-0.1582689280802098</v>
@@ -40873,10 +40873,10 @@
         <v>0.045</v>
       </c>
       <c r="G6" t="n">
-        <v>0.0432</v>
+        <v>0.0396</v>
       </c>
       <c r="H6" t="n">
-        <v>0.0461</v>
+        <v>0.0478</v>
       </c>
       <c r="I6" t="n">
         <v>-0.1029105619497961</v>
@@ -40948,13 +40948,13 @@
         <v>0.5013393725373173</v>
       </c>
       <c r="F7" t="n">
-        <v>0.045</v>
+        <v>0.055</v>
       </c>
       <c r="G7" t="n">
-        <v>0.0435</v>
+        <v>0.0472</v>
       </c>
       <c r="H7" t="n">
-        <v>0.0497</v>
+        <v>0.0623</v>
       </c>
       <c r="I7" t="n">
         <v>-0.08603222415718635</v>
@@ -41029,10 +41029,10 @@
         <v>0.035</v>
       </c>
       <c r="G8" t="n">
-        <v>0.0339</v>
+        <v>0.0346</v>
       </c>
       <c r="H8" t="n">
-        <v>0.036</v>
+        <v>0.0354</v>
       </c>
       <c r="I8" t="n">
         <v>-0.1319947215630073</v>
@@ -41104,13 +41104,13 @@
         <v>0.7018730753196983</v>
       </c>
       <c r="F9" t="n">
-        <v>0.035</v>
+        <v>0.04</v>
       </c>
       <c r="G9" t="n">
-        <v>0.0331</v>
+        <v>0.0396</v>
       </c>
       <c r="H9" t="n">
-        <v>0.0355</v>
+        <v>0.0413</v>
       </c>
       <c r="I9" t="n">
         <v>-0.1304905889912521</v>
@@ -41182,13 +41182,13 @@
         <v>0.8021409498276133</v>
       </c>
       <c r="F10" t="n">
-        <v>0.045</v>
+        <v>0.055</v>
       </c>
       <c r="G10" t="n">
-        <v>0.044</v>
+        <v>0.0544</v>
       </c>
       <c r="H10" t="n">
-        <v>0.0486</v>
+        <v>0.0571</v>
       </c>
       <c r="I10" t="n">
         <v>-0.1234296829879136</v>
@@ -41260,13 +41260,13 @@
         <v>0.9024088243348574</v>
       </c>
       <c r="F11" t="n">
-        <v>0.05</v>
+        <v>0.055</v>
       </c>
       <c r="G11" t="n">
-        <v>0.045</v>
+        <v>0.0536</v>
       </c>
       <c r="H11" t="n">
-        <v>0.0517</v>
+        <v>0.0565</v>
       </c>
       <c r="I11" t="n">
         <v>-0.08760134113273495</v>
@@ -41338,13 +41338,13 @@
         <v>1</v>
       </c>
       <c r="F12" t="n">
-        <v>0.055</v>
+        <v>0.065</v>
       </c>
       <c r="G12" t="n">
-        <v>0.049</v>
+        <v>0.0588</v>
       </c>
       <c r="H12" t="n">
-        <v>0.0577</v>
+        <v>0.0687</v>
       </c>
       <c r="I12" t="n">
         <v>-0.005630471972105732</v>
